--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EBCE75-A23C-4810-A98A-BC6DB786FADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E78FEB1-78A3-4B5F-8BCC-1BD43C8F893F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Link</t>
   </si>
@@ -154,6 +154,15 @@
   </si>
   <si>
     <t>C:\dev\Python\leetcode.com\linked_list\linked_list_09_palindrome</t>
+  </si>
+  <si>
+    <t>C:\dev\Python\leetcode.com\linked_list\linked_list_10_doubly</t>
+  </si>
+  <si>
+    <t>linked_list_10_doubly</t>
+  </si>
+  <si>
+    <t>Credit: https://leetcode.com/discuss/study-guide/1590467/my-2021-journey-to-solving-1000-leetcode-problems/1167151</t>
   </si>
 </sst>
 </file>
@@ -524,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,16 +559,16 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>234</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>24</v>
+      <c r="B2" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="8">
         <v>44532</v>
@@ -570,27 +579,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>328</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>21</v>
+        <v>234</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" s="8">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
-        <v>19</v>
+      <c r="A4">
+        <v>328</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="8">
         <v>44530</v>
@@ -601,10 +613,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D5" s="8">
         <v>44530</v>
@@ -614,77 +626,90 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>19</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>12</v>
+      <c r="B6" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="8">
         <v>44530</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+      <c r="A7">
+        <v>19</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8">
+        <v>44530</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D8" s="8">
         <v>44529</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="7">
         <v>44524</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D10" s="8">
         <v>44524</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D11" s="8">
         <v>44522</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D10">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
       <sortCondition descending="1" ref="D1"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{97F51A96-492C-429C-9C0E-16D982D31FA2}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{B44C91D2-AAE7-482B-888E-9AD3C7E15BCD}"/>
-    <hyperlink ref="C10" r:id="rId3" xr:uid="{B7003185-C9AA-464F-9F6C-2DE55272AD62}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{64639105-50D1-432D-B3C4-F5E78B0C741A}"/>
-    <hyperlink ref="C4" r:id="rId5" xr:uid="{AB3AA15C-658D-40BC-9D9F-E16EF2DB2EBC}"/>
-    <hyperlink ref="C3" r:id="rId6" xr:uid="{00D989C0-B775-4D1D-851C-C2077C7FC589}"/>
-    <hyperlink ref="C2" r:id="rId7" xr:uid="{C127A7F5-34DA-43F7-A16C-1D088B60E733}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{97F51A96-492C-429C-9C0E-16D982D31FA2}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{B44C91D2-AAE7-482B-888E-9AD3C7E15BCD}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{B7003185-C9AA-464F-9F6C-2DE55272AD62}"/>
+    <hyperlink ref="C10" r:id="rId4" xr:uid="{64639105-50D1-432D-B3C4-F5E78B0C741A}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{AB3AA15C-658D-40BC-9D9F-E16EF2DB2EBC}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{00D989C0-B775-4D1D-851C-C2077C7FC589}"/>
+    <hyperlink ref="C3" r:id="rId7" xr:uid="{C127A7F5-34DA-43F7-A16C-1D088B60E733}"/>
+    <hyperlink ref="C2" r:id="rId8" xr:uid="{5963AE58-87DA-40E2-BEA5-640D6D8E646A}"/>
+    <hyperlink ref="J1" r:id="rId9" xr:uid="{A4B5BB58-DED3-4BB0-89A8-D7070C8194C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E78FEB1-78A3-4B5F-8BCC-1BD43C8F893F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFA7E79-0F44-460A-949F-DA72EA54F4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,17 +18,24 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Link</t>
   </si>
@@ -164,11 +171,20 @@
   <si>
     <t>Credit: https://leetcode.com/discuss/study-guide/1590467/my-2021-journey-to-solving-1000-leetcode-problems/1167151</t>
   </si>
+  <si>
+    <t>linked_list_11_merge_two_sorted_lists</t>
+  </si>
+  <si>
+    <t>C:\dev\Python\leetcode.com\linked_list\linked_list_11_merge_two_sorted_lists</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="m/d/yy\ h:mm;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -239,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -247,11 +263,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -533,16 +550,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="40.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="76.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -564,13 +581,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
-        <v>27</v>
+      <c r="B2" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="8">
+        <v>30</v>
+      </c>
+      <c r="D2" s="11">
         <v>44532</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -578,17 +595,14 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>234</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>24</v>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="8">
-        <v>44531</v>
+        <v>26</v>
+      </c>
+      <c r="D3" s="11">
+        <v>44532</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>4</v>
@@ -596,29 +610,32 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>328</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>21</v>
+        <v>234</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="8">
-        <v>44530</v>
+        <v>25</v>
+      </c>
+      <c r="D4" s="11">
+        <v>44531</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
-        <v>19</v>
+      <c r="A5">
+        <v>328</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="8">
+        <v>22</v>
+      </c>
+      <c r="D5" s="11">
         <v>44530</v>
       </c>
       <c r="J5" s="5" t="s">
@@ -626,91 +643,107 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="11">
+        <v>44530</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D7" s="11">
         <v>44530</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="J7" s="10">
+        <f ca="1">NOW()</f>
+        <v>44532.685731944446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>19</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D8" s="11">
         <v>44530</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D9" s="11">
         <v>44529</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D10" s="12">
         <v>44524</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D11" s="11">
         <v>44524</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D12" s="11">
         <v>44522</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
-      <sortCondition descending="1" ref="D1"/>
-    </sortState>
-  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D12">
+    <sortCondition descending="1" ref="D2:D12"/>
+    <sortCondition descending="1" ref="B2:B12"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{97F51A96-492C-429C-9C0E-16D982D31FA2}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{B44C91D2-AAE7-482B-888E-9AD3C7E15BCD}"/>
-    <hyperlink ref="C11" r:id="rId3" xr:uid="{B7003185-C9AA-464F-9F6C-2DE55272AD62}"/>
-    <hyperlink ref="C10" r:id="rId4" xr:uid="{64639105-50D1-432D-B3C4-F5E78B0C741A}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{AB3AA15C-658D-40BC-9D9F-E16EF2DB2EBC}"/>
-    <hyperlink ref="C4" r:id="rId6" xr:uid="{00D989C0-B775-4D1D-851C-C2077C7FC589}"/>
-    <hyperlink ref="C3" r:id="rId7" xr:uid="{C127A7F5-34DA-43F7-A16C-1D088B60E733}"/>
-    <hyperlink ref="C2" r:id="rId8" xr:uid="{5963AE58-87DA-40E2-BEA5-640D6D8E646A}"/>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{97F51A96-492C-429C-9C0E-16D982D31FA2}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{B44C91D2-AAE7-482B-888E-9AD3C7E15BCD}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{B7003185-C9AA-464F-9F6C-2DE55272AD62}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{64639105-50D1-432D-B3C4-F5E78B0C741A}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{AB3AA15C-658D-40BC-9D9F-E16EF2DB2EBC}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{00D989C0-B775-4D1D-851C-C2077C7FC589}"/>
+    <hyperlink ref="C4" r:id="rId7" xr:uid="{C127A7F5-34DA-43F7-A16C-1D088B60E733}"/>
+    <hyperlink ref="C3" r:id="rId8" xr:uid="{5963AE58-87DA-40E2-BEA5-640D6D8E646A}"/>
     <hyperlink ref="J1" r:id="rId9" xr:uid="{A4B5BB58-DED3-4BB0-89A8-D7070C8194C3}"/>
+    <hyperlink ref="C2" r:id="rId10" xr:uid="{9533AF97-DDE3-4A9D-A75C-BE1EBA40C1F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFA7E79-0F44-460A-949F-DA72EA54F4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F961A7B-85DD-419A-8147-EFDD93AB79BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-6810" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Link</t>
   </si>
@@ -177,13 +177,25 @@
   <si>
     <t>C:\dev\Python\leetcode.com\linked_list\linked_list_11_merge_two_sorted_lists</t>
   </si>
+  <si>
+    <t>linked_list_12_add_two_numbers</t>
+  </si>
+  <si>
+    <t>C:\dev\Python\leetcode.com\linked_list\linked_list_12_add_two_numbers</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="m/d/yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -267,14 +279,57 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -550,16 +605,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="40.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="76.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -576,19 +631,28 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
       <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
       <c r="B2" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" s="11">
-        <v>44532</v>
+        <v>44533.546204976854</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>3</v>
@@ -596,10 +660,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" s="11">
         <v>44532</v>
@@ -609,17 +673,14 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>234</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>24</v>
+      <c r="B4" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="11">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>5</v>
@@ -627,123 +688,163 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>328</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>21</v>
+        <v>234</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" s="11">
-        <v>44530</v>
+        <v>44531</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
-        <v>19</v>
+      <c r="A6">
+        <v>328</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="11">
         <v>44530</v>
       </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D7" s="11">
         <v>44530</v>
       </c>
       <c r="J7" s="10">
         <f ca="1">NOW()</f>
-        <v>44532.685731944446</v>
+        <v>44533.559052777775</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>19</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>12</v>
+      <c r="B8" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="11">
         <v>44530</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
+      <c r="A9">
+        <v>19</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="11">
+        <v>44530</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="11">
         <v>44529</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D11" s="12">
         <v>44524</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="11">
         <v>44524</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="11">
         <v>44522</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D14">
+      <sortCondition descending="1" ref="D1:D13"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D12">
     <sortCondition descending="1" ref="D2:D12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
+  <conditionalFormatting sqref="E2:E13">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1" xr:uid="{97F51A96-492C-429C-9C0E-16D982D31FA2}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{B44C91D2-AAE7-482B-888E-9AD3C7E15BCD}"/>
-    <hyperlink ref="C12" r:id="rId3" xr:uid="{B7003185-C9AA-464F-9F6C-2DE55272AD62}"/>
-    <hyperlink ref="C11" r:id="rId4" xr:uid="{64639105-50D1-432D-B3C4-F5E78B0C741A}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{AB3AA15C-658D-40BC-9D9F-E16EF2DB2EBC}"/>
-    <hyperlink ref="C5" r:id="rId6" xr:uid="{00D989C0-B775-4D1D-851C-C2077C7FC589}"/>
-    <hyperlink ref="C4" r:id="rId7" xr:uid="{C127A7F5-34DA-43F7-A16C-1D088B60E733}"/>
-    <hyperlink ref="C3" r:id="rId8" xr:uid="{5963AE58-87DA-40E2-BEA5-640D6D8E646A}"/>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{97F51A96-492C-429C-9C0E-16D982D31FA2}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{B44C91D2-AAE7-482B-888E-9AD3C7E15BCD}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{B7003185-C9AA-464F-9F6C-2DE55272AD62}"/>
+    <hyperlink ref="C12" r:id="rId4" xr:uid="{64639105-50D1-432D-B3C4-F5E78B0C741A}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{AB3AA15C-658D-40BC-9D9F-E16EF2DB2EBC}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{00D989C0-B775-4D1D-851C-C2077C7FC589}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{C127A7F5-34DA-43F7-A16C-1D088B60E733}"/>
+    <hyperlink ref="C4" r:id="rId8" xr:uid="{5963AE58-87DA-40E2-BEA5-640D6D8E646A}"/>
     <hyperlink ref="J1" r:id="rId9" xr:uid="{A4B5BB58-DED3-4BB0-89A8-D7070C8194C3}"/>
-    <hyperlink ref="C2" r:id="rId10" xr:uid="{9533AF97-DDE3-4A9D-A75C-BE1EBA40C1F1}"/>
+    <hyperlink ref="C3" r:id="rId10" xr:uid="{9533AF97-DDE3-4A9D-A75C-BE1EBA40C1F1}"/>
+    <hyperlink ref="C2" r:id="rId11" xr:uid="{3F5EE877-0EDD-4DD4-8448-DC4ED5F252DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F961A7B-85DD-419A-8147-EFDD93AB79BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B2139C-7F41-4953-AE67-4E22EABDC487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-6810" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38340" yWindow="2220" windowWidth="12960" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
   <si>
     <t>Link</t>
   </si>
@@ -188,6 +188,114 @@
   </si>
   <si>
     <t>Medium</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>C:\dev\Python\leetcode.com\3</t>
+  </si>
+  <si>
+    <t>Search Insert Position</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>C:\dev\Python\leetcode.com\35</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>C:\dev\Python\leetcode.com\121</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock II</t>
+  </si>
+  <si>
+    <t>C:\dev\Python\leetcode.com\122</t>
+  </si>
+  <si>
+    <t>Two Sum II - Input Array Is Sorted</t>
+  </si>
+  <si>
+    <t>C:\dev\Python\leetcode.com\167</t>
+  </si>
+  <si>
+    <t>Rotate Array</t>
+  </si>
+  <si>
+    <t>C:\dev\Python\leetcode.com\189</t>
+  </si>
+  <si>
+    <t>First Bad Version</t>
+  </si>
+  <si>
+    <t>C:\dev\Python\leetcode.com\278</t>
+  </si>
+  <si>
+    <t>Move Zeroes</t>
+  </si>
+  <si>
+    <t>C:\dev\Python\leetcode.com\283</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock with Cooldown</t>
+  </si>
+  <si>
+    <t>C:\dev\Python\leetcode.com\309</t>
+  </si>
+  <si>
+    <t>Reverse String</t>
+  </si>
+  <si>
+    <t>C:\dev\Python\leetcode.com\344</t>
+  </si>
+  <si>
+    <t>Arranging Coins</t>
+  </si>
+  <si>
+    <t>C:\dev\Python\leetcode.com\441</t>
+  </si>
+  <si>
+    <t>Reverse Words in a String III</t>
+  </si>
+  <si>
+    <t>C:\dev\Python\leetcode.com\557</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>C:\dev\Python\leetcode.com\704</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock with Transaction Fee</t>
+  </si>
+  <si>
+    <t>C:\dev\Python\leetcode.com\714</t>
+  </si>
+  <si>
+    <t>Squares of a Sorted Array</t>
+  </si>
+  <si>
+    <t>C:\dev\Python\leetcode.com\977</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Find Critical and Pseudo-Critical Edges in Minimum Spanning Tree</t>
+  </si>
+  <si>
+    <t>C:\dev\Python\leetcode.com\1489</t>
+  </si>
+  <si>
+    <t>linked_list_15_rotate_list</t>
+  </si>
+  <si>
+    <t>C:\dev\Python\leetcode.com\linked_list\linked_list_15_rotate_list</t>
   </si>
 </sst>
 </file>
@@ -290,20 +398,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -326,6 +420,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -605,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,16 +748,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="11">
-        <v>44533.546204976854</v>
+        <v>36</v>
+      </c>
+      <c r="D2" s="12">
+        <v>44503</v>
       </c>
       <c r="E2" t="s">
         <v>34</v>
@@ -659,28 +767,34 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
-        <v>29</v>
+      <c r="A3">
+        <v>441</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="11">
-        <v>44532</v>
+        <v>57</v>
+      </c>
+      <c r="D3" s="12">
+        <v>44505</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>27</v>
+      <c r="A4">
+        <v>1489</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="11">
-        <v>44532</v>
+        <v>68</v>
+      </c>
+      <c r="D4" s="12">
+        <v>44505</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>5</v>
@@ -688,16 +802,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="11">
-        <v>44531</v>
+        <v>41</v>
+      </c>
+      <c r="D5" s="12">
+        <v>44510</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
@@ -708,143 +822,437 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>328</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>21</v>
+        <v>122</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="11">
-        <v>44530</v>
+        <v>43</v>
+      </c>
+      <c r="D6" s="12">
+        <v>44511</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
-        <v>19</v>
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="11">
-        <v>44530</v>
+        <v>39</v>
+      </c>
+      <c r="D7" s="12">
+        <v>44516</v>
       </c>
       <c r="J7" s="10">
         <f ca="1">NOW()</f>
-        <v>44533.559052777775</v>
+        <v>44536.512593171297</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
-        <v>14</v>
+      <c r="A8">
+        <v>278</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="11">
-        <v>44530</v>
+        <v>49</v>
+      </c>
+      <c r="D8" s="12">
+        <v>44516</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>19</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>12</v>
+        <v>309</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="11">
-        <v>44530</v>
+        <v>53</v>
+      </c>
+      <c r="D9" s="12">
+        <v>44516</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
+      <c r="A10">
+        <v>704</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="12">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>714</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="12">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>189</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="12">
+        <v>44517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>977</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="12">
+        <v>44517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>283</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="12">
+        <v>44518</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>167</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="12">
+        <v>44518</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>344</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="12">
+        <v>44519</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>557</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="12">
+        <v>44519</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="12">
+        <v>44522</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="12">
+        <v>44524</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="11">
+        <v>44524</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D21" s="11">
         <v>44529</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="12">
-        <v>44524</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="11">
-        <v>44524</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="11">
-        <v>44522</v>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>328</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="11">
+        <v>44530</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="11">
+        <v>44530</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="11">
+        <v>44530</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="11">
+        <v>44530</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>234</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="11">
+        <v>44531</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="11">
+        <v>44532</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="11">
+        <v>44532</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="11">
+        <v>44533.546204976854</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="12">
+        <v>44536.512189930552</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D13" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D14">
-      <sortCondition descending="1" ref="D1:D13"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D29">
+      <sortCondition ref="D1:D13"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D12">
     <sortCondition descending="1" ref="D2:D12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="E2:E13">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"Easy"</formula>
+  <conditionalFormatting sqref="E2:E101">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"Hard"</formula>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" xr:uid="{97F51A96-492C-429C-9C0E-16D982D31FA2}"/>
-    <hyperlink ref="C8" r:id="rId2" xr:uid="{B44C91D2-AAE7-482B-888E-9AD3C7E15BCD}"/>
-    <hyperlink ref="C13" r:id="rId3" xr:uid="{B7003185-C9AA-464F-9F6C-2DE55272AD62}"/>
-    <hyperlink ref="C12" r:id="rId4" xr:uid="{64639105-50D1-432D-B3C4-F5E78B0C741A}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{AB3AA15C-658D-40BC-9D9F-E16EF2DB2EBC}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00D989C0-B775-4D1D-851C-C2077C7FC589}"/>
-    <hyperlink ref="C5" r:id="rId7" xr:uid="{C127A7F5-34DA-43F7-A16C-1D088B60E733}"/>
-    <hyperlink ref="C4" r:id="rId8" xr:uid="{5963AE58-87DA-40E2-BEA5-640D6D8E646A}"/>
+    <hyperlink ref="C25" r:id="rId1" xr:uid="{97F51A96-492C-429C-9C0E-16D982D31FA2}"/>
+    <hyperlink ref="C24" r:id="rId2" xr:uid="{B44C91D2-AAE7-482B-888E-9AD3C7E15BCD}"/>
+    <hyperlink ref="C18" r:id="rId3" xr:uid="{B7003185-C9AA-464F-9F6C-2DE55272AD62}"/>
+    <hyperlink ref="C20" r:id="rId4" xr:uid="{64639105-50D1-432D-B3C4-F5E78B0C741A}"/>
+    <hyperlink ref="C23" r:id="rId5" xr:uid="{AB3AA15C-658D-40BC-9D9F-E16EF2DB2EBC}"/>
+    <hyperlink ref="C22" r:id="rId6" xr:uid="{00D989C0-B775-4D1D-851C-C2077C7FC589}"/>
+    <hyperlink ref="C26" r:id="rId7" xr:uid="{C127A7F5-34DA-43F7-A16C-1D088B60E733}"/>
+    <hyperlink ref="C28" r:id="rId8" xr:uid="{5963AE58-87DA-40E2-BEA5-640D6D8E646A}"/>
     <hyperlink ref="J1" r:id="rId9" xr:uid="{A4B5BB58-DED3-4BB0-89A8-D7070C8194C3}"/>
-    <hyperlink ref="C3" r:id="rId10" xr:uid="{9533AF97-DDE3-4A9D-A75C-BE1EBA40C1F1}"/>
-    <hyperlink ref="C2" r:id="rId11" xr:uid="{3F5EE877-0EDD-4DD4-8448-DC4ED5F252DD}"/>
+    <hyperlink ref="C27" r:id="rId10" xr:uid="{9533AF97-DDE3-4A9D-A75C-BE1EBA40C1F1}"/>
+    <hyperlink ref="C29" r:id="rId11" xr:uid="{3F5EE877-0EDD-4DD4-8448-DC4ED5F252DD}"/>
+    <hyperlink ref="C2" r:id="rId12" xr:uid="{0A16763B-B144-471D-95C2-36B7FB7775B6}"/>
+    <hyperlink ref="C7" r:id="rId13" xr:uid="{EE6C83EC-7195-4996-BC97-3D24501FA2B8}"/>
+    <hyperlink ref="C5" r:id="rId14" xr:uid="{A9765156-3DE5-4122-8E46-C84FAFE316C7}"/>
+    <hyperlink ref="C6" r:id="rId15" xr:uid="{82E19644-747A-4A8A-89A6-DCA2EDFDDD67}"/>
+    <hyperlink ref="C15" r:id="rId16" xr:uid="{62C101DC-6A0D-4C42-A39C-0B1D46868799}"/>
+    <hyperlink ref="C12" r:id="rId17" xr:uid="{D8F3AD2B-AB24-49E0-9E3E-FC85031C9B32}"/>
+    <hyperlink ref="C8" r:id="rId18" xr:uid="{191E215D-9B69-45FA-9F14-6417A52BE0F4}"/>
+    <hyperlink ref="C14" r:id="rId19" xr:uid="{BA11F3D7-F295-4B51-9B81-D7DC66D856BD}"/>
+    <hyperlink ref="C9" r:id="rId20" xr:uid="{C99100F2-DD0D-4205-A527-7768B8CEAFF5}"/>
+    <hyperlink ref="C16" r:id="rId21" xr:uid="{990719F8-ED83-4308-8199-9DCB1D61B773}"/>
+    <hyperlink ref="C3" r:id="rId22" xr:uid="{C5DB11D0-1DFF-4A12-9F83-E9E9D5EE8017}"/>
+    <hyperlink ref="C17" r:id="rId23" xr:uid="{F9B548CF-63F9-4B63-B213-116C0FEB46A7}"/>
+    <hyperlink ref="C10" r:id="rId24" xr:uid="{0BADD031-CC1C-49A2-A969-EFE3146095A1}"/>
+    <hyperlink ref="C11" r:id="rId25" xr:uid="{3720A234-CEDF-4B00-8ED5-FE099B9322E1}"/>
+    <hyperlink ref="C13" r:id="rId26" xr:uid="{F2F27AF2-F401-41FB-963C-06F7935F3B8F}"/>
+    <hyperlink ref="C4" r:id="rId27" xr:uid="{71AACFF9-66A8-4C71-A3BD-CE6903CFFA7B}"/>
+    <hyperlink ref="C30" r:id="rId28" xr:uid="{D7B64134-0DAC-4C5B-82F1-700DC570B5CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B2139C-7F41-4953-AE67-4E22EABDC487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEFEAF7-0A28-48DE-8803-7B28C29D7166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38340" yWindow="2220" windowWidth="12960" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
   <si>
     <t>Link</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>C:\dev\Python\leetcode.com\linked_list\linked_list_15_rotate_list</t>
+  </si>
+  <si>
+    <t>linked_list_14_copy_list_with_random_pointer</t>
   </si>
 </sst>
 </file>
@@ -394,7 +397,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -713,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,7 +876,7 @@
       </c>
       <c r="J7" s="10">
         <f ca="1">NOW()</f>
-        <v>44536.512593171297</v>
+        <v>44536.544101736108</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1201,24 +1225,42 @@
         <v>44536.512189930552</v>
       </c>
     </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="12">
+        <v>44536.543766666669</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D13" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D29">
-      <sortCondition ref="D1:D13"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D12">
     <sortCondition descending="1" ref="D2:D12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="E2:E101">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="E2:E30 E32:E101">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1251,8 +1293,9 @@
     <hyperlink ref="C13" r:id="rId26" xr:uid="{F2F27AF2-F401-41FB-963C-06F7935F3B8F}"/>
     <hyperlink ref="C4" r:id="rId27" xr:uid="{71AACFF9-66A8-4C71-A3BD-CE6903CFFA7B}"/>
     <hyperlink ref="C30" r:id="rId28" xr:uid="{D7B64134-0DAC-4C5B-82F1-700DC570B5CB}"/>
+    <hyperlink ref="C31" r:id="rId29" xr:uid="{BEE5D744-13B9-40F2-A50B-2B34AC5616E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
+  <pageSetup orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEFEAF7-0A28-48DE-8803-7B28C29D7166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8703A132-02C7-4CC0-939C-87467AA99A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
-  <si>
-    <t>Link</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>Problem</t>
   </si>
@@ -109,63 +106,33 @@
     <t>linked_list_03_cycle_II</t>
   </si>
   <si>
-    <t>C:\dev\Python\leetcode.com\linked_list\linked_list_03_cycle_II</t>
-  </si>
-  <si>
     <t>linked_list_04_intersect</t>
   </si>
   <si>
-    <t>C:\dev\Python\leetcode.com\linked_list\linked_list_04_intersect</t>
-  </si>
-  <si>
-    <t>C:\dev\Python\leetcode.com\linked_list\linked_list_06_reverse</t>
-  </si>
-  <si>
     <t>linked_list_05_remove_Nth_node_from_end</t>
   </si>
   <si>
-    <t>C:\dev\Python\leetcode.com\linked_list\linked_list_05_remove_Nth_node_from_end</t>
-  </si>
-  <si>
     <t>linked_list_06_reverse</t>
   </si>
   <si>
     <t>linked_list_01_design_singly</t>
   </si>
   <si>
-    <t>C:\dev\Python\leetcode.com\linked_list\linked_list_01_design_singly</t>
-  </si>
-  <si>
     <t>linked_list_02_cycle</t>
   </si>
   <si>
-    <t>C:\dev\Python\leetcode.com\linked_list\linked_list_02_cycle</t>
-  </si>
-  <si>
     <t>linked_list_07_remove_elements</t>
   </si>
   <si>
-    <t>C:\dev\Python\leetcode.com\linked_list\linked_list_07_remove_elements</t>
-  </si>
-  <si>
     <t>linked_list_08_odd_even</t>
   </si>
   <si>
-    <t>C:\dev\Python\leetcode.com\linked_list\linked_list_08_odd_even</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
     <t>linked_list_09_palindrome</t>
   </si>
   <si>
-    <t>C:\dev\Python\leetcode.com\linked_list\linked_list_09_palindrome</t>
-  </si>
-  <si>
-    <t>C:\dev\Python\leetcode.com\linked_list\linked_list_10_doubly</t>
-  </si>
-  <si>
     <t>linked_list_10_doubly</t>
   </si>
   <si>
@@ -175,15 +142,9 @@
     <t>linked_list_11_merge_two_sorted_lists</t>
   </si>
   <si>
-    <t>C:\dev\Python\leetcode.com\linked_list\linked_list_11_merge_two_sorted_lists</t>
-  </si>
-  <si>
     <t>linked_list_12_add_two_numbers</t>
   </si>
   <si>
-    <t>C:\dev\Python\leetcode.com\linked_list\linked_list_12_add_two_numbers</t>
-  </si>
-  <si>
     <t>Difficulty</t>
   </si>
   <si>
@@ -193,112 +154,67 @@
     <t>Longest Substring Without Repeating Characters</t>
   </si>
   <si>
-    <t>C:\dev\Python\leetcode.com\3</t>
-  </si>
-  <si>
     <t>Search Insert Position</t>
   </si>
   <si>
     <t>Easy</t>
   </si>
   <si>
-    <t>C:\dev\Python\leetcode.com\35</t>
-  </si>
-  <si>
     <t>Best Time to Buy and Sell Stock</t>
   </si>
   <si>
-    <t>C:\dev\Python\leetcode.com\121</t>
-  </si>
-  <si>
     <t>Best Time to Buy and Sell Stock II</t>
   </si>
   <si>
-    <t>C:\dev\Python\leetcode.com\122</t>
-  </si>
-  <si>
     <t>Two Sum II - Input Array Is Sorted</t>
   </si>
   <si>
-    <t>C:\dev\Python\leetcode.com\167</t>
-  </si>
-  <si>
     <t>Rotate Array</t>
   </si>
   <si>
-    <t>C:\dev\Python\leetcode.com\189</t>
-  </si>
-  <si>
     <t>First Bad Version</t>
   </si>
   <si>
-    <t>C:\dev\Python\leetcode.com\278</t>
-  </si>
-  <si>
     <t>Move Zeroes</t>
   </si>
   <si>
-    <t>C:\dev\Python\leetcode.com\283</t>
-  </si>
-  <si>
     <t>Best Time to Buy and Sell Stock with Cooldown</t>
   </si>
   <si>
-    <t>C:\dev\Python\leetcode.com\309</t>
-  </si>
-  <si>
     <t>Reverse String</t>
   </si>
   <si>
-    <t>C:\dev\Python\leetcode.com\344</t>
-  </si>
-  <si>
     <t>Arranging Coins</t>
   </si>
   <si>
-    <t>C:\dev\Python\leetcode.com\441</t>
-  </si>
-  <si>
     <t>Reverse Words in a String III</t>
   </si>
   <si>
-    <t>C:\dev\Python\leetcode.com\557</t>
-  </si>
-  <si>
     <t>Binary Search</t>
   </si>
   <si>
-    <t>C:\dev\Python\leetcode.com\704</t>
-  </si>
-  <si>
     <t>Best Time to Buy and Sell Stock with Transaction Fee</t>
   </si>
   <si>
-    <t>C:\dev\Python\leetcode.com\714</t>
-  </si>
-  <si>
     <t>Squares of a Sorted Array</t>
   </si>
   <si>
-    <t>C:\dev\Python\leetcode.com\977</t>
-  </si>
-  <si>
     <t>Hard</t>
   </si>
   <si>
     <t>Find Critical and Pseudo-Critical Edges in Minimum Spanning Tree</t>
   </si>
   <si>
-    <t>C:\dev\Python\leetcode.com\1489</t>
-  </si>
-  <si>
     <t>linked_list_15_rotate_list</t>
   </si>
   <si>
-    <t>C:\dev\Python\leetcode.com\linked_list\linked_list_15_rotate_list</t>
-  </si>
-  <si>
     <t>linked_list_14_copy_list_with_random_pointer</t>
+  </si>
+  <si>
+    <t>Middle of the Linked List</t>
+  </si>
+  <si>
+    <t>Permutation in String</t>
   </si>
 </sst>
 </file>
@@ -397,7 +313,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
@@ -422,6 +338,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -429,6 +359,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -436,6 +373,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -443,21 +387,35 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -737,523 +695,480 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="40.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="76.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="76.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="12">
+        <v>22</v>
+      </c>
+      <c r="C2" s="12">
         <v>44503</v>
       </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>441</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="12">
+        <v>33</v>
+      </c>
+      <c r="C3" s="12">
         <v>44505</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1489</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="12">
+        <v>39</v>
+      </c>
+      <c r="C4" s="12">
         <v>44505</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>121</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="12">
+        <v>25</v>
+      </c>
+      <c r="C5" s="12">
         <v>44510</v>
       </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>122</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="12">
+        <v>26</v>
+      </c>
+      <c r="C6" s="12">
         <v>44511</v>
       </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>35</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="12">
+        <v>23</v>
+      </c>
+      <c r="C7" s="12">
         <v>44516</v>
       </c>
-      <c r="J7" s="10">
+      <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44536.544101736108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44536.742664930556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>278</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="12">
+        <v>29</v>
+      </c>
+      <c r="C8" s="12">
         <v>44516</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>309</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="12">
+        <v>31</v>
+      </c>
+      <c r="C9" s="12">
         <v>44516</v>
       </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>704</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="12">
+        <v>35</v>
+      </c>
+      <c r="C10" s="12">
         <v>44516</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>714</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="12">
+        <v>36</v>
+      </c>
+      <c r="C11" s="12">
         <v>44516</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>189</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="12">
+        <v>28</v>
+      </c>
+      <c r="C12" s="12">
         <v>44517</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>977</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="12">
+        <v>37</v>
+      </c>
+      <c r="C13" s="12">
         <v>44517</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>283</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="12">
+        <v>30</v>
+      </c>
+      <c r="C14" s="12">
         <v>44518</v>
       </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>167</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="12">
+        <v>27</v>
+      </c>
+      <c r="C15" s="12">
         <v>44518</v>
       </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>344</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="12">
+        <v>32</v>
+      </c>
+      <c r="C16" s="12">
         <v>44519</v>
       </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>557</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="12">
+        <v>34</v>
+      </c>
+      <c r="C17" s="12">
         <v>44519</v>
       </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="12">
+        <v>10</v>
+      </c>
+      <c r="C18" s="12">
         <v>44522</v>
       </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="12">
+        <v>44524</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="11">
+        <v>44524</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="12">
-        <v>44524</v>
-      </c>
-      <c r="E19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="11">
-        <v>44524</v>
-      </c>
-      <c r="E20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="11">
+      <c r="C21" s="11">
         <v>44529</v>
       </c>
-      <c r="E21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>328</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="11">
+        <v>44530</v>
+      </c>
+      <c r="D22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="11">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="11">
         <v>44530</v>
       </c>
-      <c r="E22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="11">
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="11">
         <v>44530</v>
       </c>
-      <c r="E23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="11">
-        <v>44530</v>
-      </c>
-      <c r="E24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="11">
+        <v>8</v>
+      </c>
+      <c r="C25" s="11">
         <v>44530</v>
       </c>
-      <c r="E25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>234</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="11">
+        <v>44531</v>
+      </c>
+      <c r="D26" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="11">
-        <v>44531</v>
-      </c>
-      <c r="E26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="11">
+        <v>18</v>
+      </c>
+      <c r="C27" s="11">
         <v>44532</v>
       </c>
-      <c r="E27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="11">
+        <v>16</v>
+      </c>
+      <c r="C28" s="11">
         <v>44532</v>
       </c>
-      <c r="E28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="11">
+        <v>19</v>
+      </c>
+      <c r="C29" s="11">
         <v>44533.546204976854</v>
       </c>
-      <c r="E29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="12">
+        <v>40</v>
+      </c>
+      <c r="C30" s="12">
         <v>44536.512189930552</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="12">
+        <v>41</v>
+      </c>
+      <c r="C31" s="12">
         <v>44536.543766666669</v>
       </c>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>876</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="12">
+        <v>44536.639974189813</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>567</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="12">
+        <v>44536.742515162034</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D12">
-    <sortCondition descending="1" ref="D2:D12"/>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C12">
+    <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="E2:E30 E32:E101">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+  <conditionalFormatting sqref="D2:D30 D34:D101">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="D31">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1265,37 +1180,9 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C25" r:id="rId1" xr:uid="{97F51A96-492C-429C-9C0E-16D982D31FA2}"/>
-    <hyperlink ref="C24" r:id="rId2" xr:uid="{B44C91D2-AAE7-482B-888E-9AD3C7E15BCD}"/>
-    <hyperlink ref="C18" r:id="rId3" xr:uid="{B7003185-C9AA-464F-9F6C-2DE55272AD62}"/>
-    <hyperlink ref="C20" r:id="rId4" xr:uid="{64639105-50D1-432D-B3C4-F5E78B0C741A}"/>
-    <hyperlink ref="C23" r:id="rId5" xr:uid="{AB3AA15C-658D-40BC-9D9F-E16EF2DB2EBC}"/>
-    <hyperlink ref="C22" r:id="rId6" xr:uid="{00D989C0-B775-4D1D-851C-C2077C7FC589}"/>
-    <hyperlink ref="C26" r:id="rId7" xr:uid="{C127A7F5-34DA-43F7-A16C-1D088B60E733}"/>
-    <hyperlink ref="C28" r:id="rId8" xr:uid="{5963AE58-87DA-40E2-BEA5-640D6D8E646A}"/>
-    <hyperlink ref="J1" r:id="rId9" xr:uid="{A4B5BB58-DED3-4BB0-89A8-D7070C8194C3}"/>
-    <hyperlink ref="C27" r:id="rId10" xr:uid="{9533AF97-DDE3-4A9D-A75C-BE1EBA40C1F1}"/>
-    <hyperlink ref="C29" r:id="rId11" xr:uid="{3F5EE877-0EDD-4DD4-8448-DC4ED5F252DD}"/>
-    <hyperlink ref="C2" r:id="rId12" xr:uid="{0A16763B-B144-471D-95C2-36B7FB7775B6}"/>
-    <hyperlink ref="C7" r:id="rId13" xr:uid="{EE6C83EC-7195-4996-BC97-3D24501FA2B8}"/>
-    <hyperlink ref="C5" r:id="rId14" xr:uid="{A9765156-3DE5-4122-8E46-C84FAFE316C7}"/>
-    <hyperlink ref="C6" r:id="rId15" xr:uid="{82E19644-747A-4A8A-89A6-DCA2EDFDDD67}"/>
-    <hyperlink ref="C15" r:id="rId16" xr:uid="{62C101DC-6A0D-4C42-A39C-0B1D46868799}"/>
-    <hyperlink ref="C12" r:id="rId17" xr:uid="{D8F3AD2B-AB24-49E0-9E3E-FC85031C9B32}"/>
-    <hyperlink ref="C8" r:id="rId18" xr:uid="{191E215D-9B69-45FA-9F14-6417A52BE0F4}"/>
-    <hyperlink ref="C14" r:id="rId19" xr:uid="{BA11F3D7-F295-4B51-9B81-D7DC66D856BD}"/>
-    <hyperlink ref="C9" r:id="rId20" xr:uid="{C99100F2-DD0D-4205-A527-7768B8CEAFF5}"/>
-    <hyperlink ref="C16" r:id="rId21" xr:uid="{990719F8-ED83-4308-8199-9DCB1D61B773}"/>
-    <hyperlink ref="C3" r:id="rId22" xr:uid="{C5DB11D0-1DFF-4A12-9F83-E9E9D5EE8017}"/>
-    <hyperlink ref="C17" r:id="rId23" xr:uid="{F9B548CF-63F9-4B63-B213-116C0FEB46A7}"/>
-    <hyperlink ref="C10" r:id="rId24" xr:uid="{0BADD031-CC1C-49A2-A969-EFE3146095A1}"/>
-    <hyperlink ref="C11" r:id="rId25" xr:uid="{3720A234-CEDF-4B00-8ED5-FE099B9322E1}"/>
-    <hyperlink ref="C13" r:id="rId26" xr:uid="{F2F27AF2-F401-41FB-963C-06F7935F3B8F}"/>
-    <hyperlink ref="C4" r:id="rId27" xr:uid="{71AACFF9-66A8-4C71-A3BD-CE6903CFFA7B}"/>
-    <hyperlink ref="C30" r:id="rId28" xr:uid="{D7B64134-0DAC-4C5B-82F1-700DC570B5CB}"/>
-    <hyperlink ref="C31" r:id="rId29" xr:uid="{BEE5D744-13B9-40F2-A50B-2B34AC5616E5}"/>
+    <hyperlink ref="I1" r:id="rId1" xr:uid="{A4B5BB58-DED3-4BB0-89A8-D7070C8194C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId30"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8703A132-02C7-4CC0-939C-87467AA99A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CB97F4-BB4B-44AE-9E93-2DB9B7A6F877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -313,7 +313,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -395,27 +395,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -698,7 +677,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,7 +712,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="12">
-        <v>44503</v>
+        <v>44537.487768402774</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -813,7 +792,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44536.742664930556</v>
+        <v>44537.487861226851</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CB97F4-BB4B-44AE-9E93-2DB9B7A6F877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF15A967-7E52-4FFA-8483-22F6B6AE7D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>Problem</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>Permutation in String</t>
+  </si>
+  <si>
+    <t>Delete Node in a Linked List</t>
+  </si>
+  <si>
+    <t>Number of 1 Bits</t>
   </si>
 </sst>
 </file>
@@ -313,7 +319,49 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -674,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,16 +754,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>22</v>
+        <v>441</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="12">
-        <v>44537.487768402774</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
+        <v>44505</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>2</v>
@@ -723,10 +768,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>441</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>33</v>
+        <v>1489</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C3" s="12">
         <v>44505</v>
@@ -737,13 +782,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1489</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
+        <v>121</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="C4" s="12">
-        <v>44505</v>
+        <v>44510</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>4</v>
@@ -751,13 +799,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="12">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -768,64 +816,61 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" s="12">
-        <v>44511</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
+        <v>44516</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>35</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>23</v>
+        <v>278</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C7" s="12">
         <v>44516</v>
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44537.487861226851</v>
+        <v>44537.698034027781</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>278</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>29</v>
+        <v>309</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C8" s="12">
         <v>44516</v>
       </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>309</v>
+        <v>704</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C9" s="12">
         <v>44516</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="12">
         <v>44516</v>
@@ -833,21 +878,21 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>714</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>36</v>
+        <v>189</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="C11" s="12">
-        <v>44516</v>
+        <v>44517</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>189</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>28</v>
+        <v>977</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C12" s="12">
         <v>44517</v>
@@ -855,38 +900,41 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>977</v>
+        <v>283</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C13" s="12">
-        <v>44517</v>
+        <v>44518</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>283</v>
+        <v>167</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C14" s="12">
         <v>44518</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>167</v>
+        <v>344</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C15" s="12">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
@@ -894,93 +942,90 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>344</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>32</v>
+        <v>557</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C16" s="12">
         <v>44519</v>
       </c>
       <c r="D16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="12">
+        <v>44522</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>557</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="12">
-        <v>44519</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C18" s="12">
-        <v>44522</v>
+        <v>44524</v>
       </c>
       <c r="D18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="11">
+        <v>44524</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="12">
-        <v>44524</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C20" s="11">
-        <v>44524</v>
+        <v>44529</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
-        <v>7</v>
+      <c r="A21">
+        <v>328</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C21" s="11">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>328</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>13</v>
+      <c r="B22" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="C22" s="11">
         <v>44530</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C23" s="11">
         <v>44530</v>
@@ -990,8 +1035,11 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="s">
-        <v>9</v>
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="C24" s="11">
         <v>44530</v>
@@ -1002,119 +1050,173 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>19</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>8</v>
+        <v>234</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C25" s="11">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>234</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>15</v>
+      <c r="B26" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C26" s="11">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C27" s="11">
         <v>44532</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
       <c r="B28" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C28" s="11">
-        <v>44532</v>
+        <v>44533.546204976854</v>
       </c>
       <c r="D28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="12">
+        <v>44536.512189930552</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="12">
+        <v>44536.543766666669</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>876</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="12">
+        <v>44536.639974189813</v>
+      </c>
+      <c r="D31" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="11">
-        <v>44533.546204976854</v>
-      </c>
-      <c r="D29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="12">
-        <v>44536.512189930552</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="12">
-        <v>44536.543766666669</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>876</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>42</v>
+        <v>567</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="C32" s="12">
-        <v>44536.639974189813</v>
+        <v>44536.742515162034</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>567</v>
+        <v>3</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C33" s="12">
-        <v>44536.742515162034</v>
+        <v>44537.487768402774</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>237</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="12">
+        <v>44537.696392245372</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>191</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="12">
+        <v>44537.696392245372</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D33">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C12">
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D34:D101">
+  <conditionalFormatting sqref="D2:D30 D36:D101">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1125,7 +1227,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1136,7 +1238,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1147,7 +1249,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF15A967-7E52-4FFA-8483-22F6B6AE7D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573E02C1-344B-45D3-8489-90CEF22693E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58815" yWindow="1770" windowWidth="12960" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>Problem</t>
   </si>
@@ -221,6 +221,12 @@
   </si>
   <si>
     <t>Number of 1 Bits</t>
+  </si>
+  <si>
+    <t>K Closest Points to Origin</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
   </si>
 </sst>
 </file>
@@ -319,7 +325,49 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -722,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -837,7 +885,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44537.698034027781</v>
+        <v>44537.760845486111</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1182,6 +1230,34 @@
       </c>
       <c r="D35" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>973</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="12">
+        <v>44537.758970023147</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="12">
+        <v>44537.759664351855</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1194,7 +1270,29 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D36:D101">
+  <conditionalFormatting sqref="D2:D30 D38:D101">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1205,7 +1303,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1216,7 +1314,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1227,7 +1325,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1238,7 +1336,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1249,7 +1347,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573E02C1-344B-45D3-8489-90CEF22693E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA0408E-A5B5-425B-B9CA-C9A04E645EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58815" yWindow="1770" windowWidth="12960" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>Problem</t>
   </si>
@@ -227,6 +227,15 @@
   </si>
   <si>
     <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>Minimum Number of Taps to Open to Water a Garden</t>
+  </si>
+  <si>
+    <t>Flood Fill</t>
+  </si>
+  <si>
+    <t>Max Area of Island</t>
   </si>
 </sst>
 </file>
@@ -325,7 +334,49 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -770,16 +821,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="40.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="76.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -885,7 +936,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44537.760845486111</v>
+        <v>44545.580656018516</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1257,6 +1308,48 @@
         <v>44537.759664351855</v>
       </c>
       <c r="D37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1326</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="12">
+        <v>44544.671527777777</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>733</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="12">
+        <v>44545.451388888891</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>695</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="12">
+        <v>44545.58037152778</v>
+      </c>
+      <c r="D40" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1270,7 +1363,29 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38:D101">
+  <conditionalFormatting sqref="D2:D30 D38 D41:D101">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1281,7 +1396,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1292,7 +1407,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1303,7 +1418,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1314,7 +1429,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1325,7 +1440,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1336,7 +1451,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1347,7 +1462,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA0408E-A5B5-425B-B9CA-C9A04E645EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3C9F1A-4194-440B-82F5-F5E03638ACE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34905" yWindow="3150" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>Problem</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>Max Area of Island</t>
+  </si>
+  <si>
+    <t>Merge Two Binary Trees</t>
   </si>
 </sst>
 </file>
@@ -334,7 +337,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -821,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,7 +960,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44545.580656018516</v>
+        <v>44545.761826041664</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1351,6 +1375,20 @@
       </c>
       <c r="D40" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>617</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="12">
+        <v>44545.755876157411</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1363,7 +1401,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D41:D101">
+  <conditionalFormatting sqref="D2:D30 D38 D42:D101">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1374,7 +1423,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1385,7 +1434,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1396,7 +1445,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1407,7 +1456,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1418,7 +1467,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1429,7 +1478,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1440,7 +1489,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1451,7 +1500,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1462,7 +1511,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3C9F1A-4194-440B-82F5-F5E03638ACE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50412301-0797-4B55-A1A2-C98998F63969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34905" yWindow="3150" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18525" yWindow="-420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>Problem</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>Merge Two Binary Trees</t>
+  </si>
+  <si>
+    <t>Populating Next Right Pointers in Each Node</t>
   </si>
 </sst>
 </file>
@@ -337,7 +340,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -845,20 +869,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="76.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="76.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -875,7 +899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>441</v>
       </c>
@@ -889,7 +913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1489</v>
       </c>
@@ -903,7 +927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>121</v>
       </c>
@@ -920,7 +944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>122</v>
       </c>
@@ -937,7 +961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>35</v>
       </c>
@@ -948,7 +972,7 @@
         <v>44516</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>278</v>
       </c>
@@ -960,10 +984,10 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44545.761826041664</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>44551.533244560182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>309</v>
       </c>
@@ -977,7 +1001,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>704</v>
       </c>
@@ -988,7 +1012,7 @@
         <v>44516</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>714</v>
       </c>
@@ -999,7 +1023,7 @@
         <v>44516</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>189</v>
       </c>
@@ -1010,7 +1034,7 @@
         <v>44517</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>977</v>
       </c>
@@ -1021,7 +1045,7 @@
         <v>44517</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>283</v>
       </c>
@@ -1035,7 +1059,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>167</v>
       </c>
@@ -1049,7 +1073,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>344</v>
       </c>
@@ -1063,7 +1087,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>557</v>
       </c>
@@ -1077,7 +1101,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
@@ -1088,7 +1112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>6</v>
       </c>
@@ -1099,7 +1123,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>11</v>
       </c>
@@ -1110,7 +1134,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>7</v>
       </c>
@@ -1121,7 +1145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>328</v>
       </c>
@@ -1135,7 +1159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>12</v>
       </c>
@@ -1146,7 +1170,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>9</v>
       </c>
@@ -1157,7 +1181,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19</v>
       </c>
@@ -1171,7 +1195,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>234</v>
       </c>
@@ -1185,7 +1209,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>18</v>
       </c>
@@ -1196,7 +1220,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>16</v>
       </c>
@@ -1207,7 +1231,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1221,7 +1245,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
         <v>40</v>
       </c>
@@ -1229,7 +1253,7 @@
         <v>44536.512189930552</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>41</v>
       </c>
@@ -1237,7 +1261,7 @@
         <v>44536.543766666669</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>876</v>
       </c>
@@ -1251,7 +1275,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>567</v>
       </c>
@@ -1265,7 +1289,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1279,7 +1303,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>237</v>
       </c>
@@ -1293,7 +1317,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>191</v>
       </c>
@@ -1307,7 +1331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>973</v>
       </c>
@@ -1321,7 +1345,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
@@ -1335,7 +1359,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1326</v>
       </c>
@@ -1349,7 +1373,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>733</v>
       </c>
@@ -1363,7 +1387,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>695</v>
       </c>
@@ -1377,7 +1401,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>617</v>
       </c>
@@ -1389,6 +1413,20 @@
       </c>
       <c r="D41" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>116</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="12">
+        <v>44551.533077546293</v>
+      </c>
+      <c r="D42" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1401,7 +1439,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D42:D101">
+  <conditionalFormatting sqref="D2:D30 D38 D43:D101">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1412,7 +1461,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1423,7 +1472,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1434,7 +1483,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1445,7 +1494,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1456,7 +1505,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1467,7 +1516,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1478,7 +1527,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1489,7 +1538,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1500,7 +1549,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1511,7 +1560,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50412301-0797-4B55-A1A2-C98998F63969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094B255C-8D6A-4392-9912-7CC5D5C1A0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18525" yWindow="-420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="22500" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
   <si>
     <t>Problem</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>Populating Next Right Pointers in Each Node</t>
+  </si>
+  <si>
+    <t>01 Matrix</t>
   </si>
 </sst>
 </file>
@@ -340,7 +343,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -869,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,7 +1008,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44551.533244560182</v>
+        <v>44558.680850115743</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1426,6 +1450,20 @@
         <v>44551.533077546293</v>
       </c>
       <c r="D42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>542</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="12">
+        <v>44558.680590046293</v>
+      </c>
+      <c r="D43" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1439,7 +1477,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D43:D101">
+  <conditionalFormatting sqref="D2:D30 D38 D44:D101">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1450,7 +1499,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1461,7 +1510,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1472,7 +1521,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1483,7 +1532,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1494,7 +1543,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1505,7 +1554,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1516,7 +1565,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1527,7 +1576,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1538,7 +1587,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1549,7 +1598,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1560,7 +1609,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094B255C-8D6A-4392-9912-7CC5D5C1A0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B229B2A-A6D2-48B6-9201-25CDB1E62233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1350" windowWidth="22500" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>Problem</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>01 Matrix</t>
+  </si>
+  <si>
+    <t>Rotting Oranges</t>
   </si>
 </sst>
 </file>
@@ -343,7 +346,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="42">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -893,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,7 +1032,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44558.680850115743</v>
+        <v>44558.894759374998</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1464,6 +1488,20 @@
         <v>44558.680590046293</v>
       </c>
       <c r="D43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>994</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="12">
+        <v>44558.894684722225</v>
+      </c>
+      <c r="D44" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1477,7 +1515,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D44:D101">
+  <conditionalFormatting sqref="D2:D30 D38 D45:D101">
+    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1488,7 +1537,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1499,7 +1548,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1510,7 +1559,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1521,7 +1570,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1532,7 +1581,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1543,7 +1592,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1554,7 +1603,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1565,7 +1614,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1576,7 +1625,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1587,7 +1636,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1598,7 +1647,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1609,7 +1658,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B229B2A-A6D2-48B6-9201-25CDB1E62233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A3A656-2573-4545-943E-F798322BB79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="22500" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -919,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44558.894759374998</v>
+        <v>44559.484613541666</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1258,6 +1258,9 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>21</v>
+      </c>
       <c r="B26" s="8" t="s">
         <v>18</v>
       </c>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A3A656-2573-4545-943E-F798322BB79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8244E7-F1AE-4E2C-AEE2-DBD3CEBC5C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -920,7 +920,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44559.484613541666</v>
+        <v>44559.546144907406</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1219,6 +1219,9 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>206</v>
+      </c>
       <c r="B23" s="9" t="s">
         <v>9</v>
       </c>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8244E7-F1AE-4E2C-AEE2-DBD3CEBC5C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F97185-9319-4B6F-85E5-4E0D039019D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t>Problem</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>Rotting Oranges</t>
+  </si>
+  <si>
+    <t>Combinations</t>
   </si>
 </sst>
 </file>
@@ -346,7 +349,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="45">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -917,20 +941,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="76.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="76.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -947,7 +971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>441</v>
       </c>
@@ -961,7 +985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1489</v>
       </c>
@@ -975,7 +999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>121</v>
       </c>
@@ -992,7 +1016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>122</v>
       </c>
@@ -1009,7 +1033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>35</v>
       </c>
@@ -1020,7 +1044,7 @@
         <v>44516</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>278</v>
       </c>
@@ -1032,10 +1056,10 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44559.546144907406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44564.718163194448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>309</v>
       </c>
@@ -1049,7 +1073,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>704</v>
       </c>
@@ -1060,7 +1084,7 @@
         <v>44516</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>714</v>
       </c>
@@ -1071,7 +1095,7 @@
         <v>44516</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>189</v>
       </c>
@@ -1082,7 +1106,7 @@
         <v>44517</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>977</v>
       </c>
@@ -1093,7 +1117,7 @@
         <v>44517</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>283</v>
       </c>
@@ -1107,7 +1131,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>167</v>
       </c>
@@ -1121,7 +1145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>344</v>
       </c>
@@ -1135,7 +1159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>557</v>
       </c>
@@ -1149,7 +1173,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
@@ -1160,7 +1184,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>6</v>
       </c>
@@ -1171,7 +1195,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>11</v>
       </c>
@@ -1182,7 +1206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>7</v>
       </c>
@@ -1193,7 +1217,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>328</v>
       </c>
@@ -1207,7 +1231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
         <v>12</v>
       </c>
@@ -1218,7 +1242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>206</v>
       </c>
@@ -1232,7 +1256,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>19</v>
       </c>
@@ -1246,7 +1270,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>234</v>
       </c>
@@ -1260,7 +1284,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>21</v>
       </c>
@@ -1274,7 +1298,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>16</v>
       </c>
@@ -1285,7 +1309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1299,7 +1323,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" s="9" t="s">
         <v>40</v>
       </c>
@@ -1307,7 +1331,7 @@
         <v>44536.512189930552</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>41</v>
       </c>
@@ -1315,7 +1339,7 @@
         <v>44536.543766666669</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>876</v>
       </c>
@@ -1329,7 +1353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>567</v>
       </c>
@@ -1343,7 +1367,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1357,7 +1381,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>237</v>
       </c>
@@ -1371,7 +1395,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>191</v>
       </c>
@@ -1385,7 +1409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>973</v>
       </c>
@@ -1399,7 +1423,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>5</v>
       </c>
@@ -1413,7 +1437,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1326</v>
       </c>
@@ -1427,7 +1451,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>733</v>
       </c>
@@ -1441,7 +1465,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>695</v>
       </c>
@@ -1455,7 +1479,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>617</v>
       </c>
@@ -1469,7 +1493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>116</v>
       </c>
@@ -1483,7 +1507,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>542</v>
       </c>
@@ -1497,7 +1521,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>994</v>
       </c>
@@ -1508,6 +1532,20 @@
         <v>44558.894684722225</v>
       </c>
       <c r="D44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>77</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="12">
+        <v>44564.717862731479</v>
+      </c>
+      <c r="D45" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1521,7 +1559,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D45:D101">
+  <conditionalFormatting sqref="D2:D30 D38 D46:D102">
+    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1532,7 +1581,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1543,7 +1592,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1554,7 +1603,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1565,7 +1614,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1576,7 +1625,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1587,7 +1636,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1598,7 +1647,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1609,7 +1658,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1620,7 +1669,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1631,7 +1680,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1642,7 +1691,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1653,7 +1702,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1664,7 +1713,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F97185-9319-4B6F-85E5-4E0D039019D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C91BB0-E018-489C-9DE9-30C71E880F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
   <si>
     <t>Problem</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>Combinations</t>
+  </si>
+  <si>
+    <t>Permutation</t>
   </si>
 </sst>
 </file>
@@ -349,7 +352,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="48">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -941,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1056,7 +1080,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44564.718163194448</v>
+        <v>44565.481979861113</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1546,6 +1570,20 @@
         <v>44564.717862731479</v>
       </c>
       <c r="D45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="12">
+        <v>44565.481913310185</v>
+      </c>
+      <c r="D46" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1559,7 +1597,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D46:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D47:D102">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1570,7 +1619,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1581,7 +1630,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1592,7 +1641,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1603,7 +1652,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1614,7 +1663,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1625,7 +1674,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1636,7 +1685,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1647,7 +1696,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1658,7 +1707,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1669,7 +1718,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1680,7 +1729,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1691,7 +1740,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1702,7 +1751,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1713,7 +1762,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C91BB0-E018-489C-9DE9-30C71E880F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C0E8F8-1F2C-4027-B66B-8C0F28D95273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
   <si>
     <t>Problem</t>
   </si>
@@ -352,7 +352,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="51">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -965,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1080,7 +1101,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44565.481979861113</v>
+        <v>44566.53137986111</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1584,6 +1605,20 @@
         <v>44565.481913310185</v>
       </c>
       <c r="D46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>781</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="12">
+        <v>44566.531255787035</v>
+      </c>
+      <c r="D47" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1597,7 +1632,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D47:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D48:D102">
+    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1608,7 +1654,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1619,7 +1665,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1630,7 +1676,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1641,7 +1687,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1652,7 +1698,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1663,7 +1709,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1674,7 +1720,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1685,7 +1731,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1696,7 +1742,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1707,7 +1753,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1718,7 +1764,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1729,7 +1775,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1740,7 +1786,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1751,7 +1797,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1762,7 +1808,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C0E8F8-1F2C-4027-B66B-8C0F28D95273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E986512C-2974-4AA4-A899-C537FAA4B133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
   <si>
     <t>Problem</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>Permutation</t>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+  </si>
+  <si>
+    <t>Letter Case Permutation</t>
   </si>
 </sst>
 </file>
@@ -352,7 +358,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="54">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -986,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1101,7 +1128,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44566.53137986111</v>
+        <v>44566.601004745367</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1613,13 +1640,27 @@
         <v>781</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C47" s="12">
         <v>44566.531255787035</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>70</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="12">
+        <v>44566.600786921299</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1632,7 +1673,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D48:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D49:D102">
+    <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="54" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1643,7 +1695,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1654,7 +1706,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1665,7 +1717,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1676,7 +1728,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1687,7 +1739,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1698,7 +1750,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1709,7 +1761,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1720,7 +1772,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1731,7 +1783,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1742,7 +1794,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1753,7 +1805,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1764,7 +1816,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1775,7 +1827,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1786,7 +1838,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1797,7 +1849,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1808,7 +1860,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E986512C-2974-4AA4-A899-C537FAA4B133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55063758-B124-47FC-B98E-36B5A64ED0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
   <si>
     <t>Problem</t>
   </si>
@@ -358,7 +358,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="57">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1013,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1128,7 +1149,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44566.601004745367</v>
+        <v>44566.617028587963</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1661,6 +1682,20 @@
       </c>
       <c r="D48" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>198</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="12">
+        <v>44566.616995486111</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1673,7 +1708,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D49:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D50:D102">
+    <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1684,7 +1730,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1695,7 +1741,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1706,7 +1752,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1717,7 +1763,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1728,7 +1774,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1739,7 +1785,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1750,7 +1796,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1761,7 +1807,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1772,7 +1818,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1783,7 +1829,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1794,7 +1840,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1805,7 +1851,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1816,7 +1862,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1827,7 +1873,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1838,7 +1884,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1849,7 +1895,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1860,7 +1906,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55063758-B124-47FC-B98E-36B5A64ED0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD81A0C-9D5D-4E81-B93E-3F544B611586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>Problem</t>
   </si>
@@ -260,6 +260,12 @@
   </si>
   <si>
     <t>Letter Case Permutation</t>
+  </si>
+  <si>
+    <t>House Robber</t>
+  </si>
+  <si>
+    <t>Triangle</t>
   </si>
 </sst>
 </file>
@@ -358,7 +364,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="60">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1034,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1149,7 +1176,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44566.617028587963</v>
+        <v>44567.481191319443</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1689,12 +1716,26 @@
         <v>198</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C49" s="12">
         <v>44566.616995486111</v>
       </c>
       <c r="D49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>120</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="12">
+        <v>44567.481120601849</v>
+      </c>
+      <c r="D50" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1708,7 +1749,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D50:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D51:D102">
+    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1719,7 +1771,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1730,7 +1782,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1741,7 +1793,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1752,7 +1804,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1763,7 +1815,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1774,7 +1826,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1785,7 +1837,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1796,7 +1848,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1807,7 +1859,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1818,7 +1870,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1829,7 +1881,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1840,7 +1892,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1851,7 +1903,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1862,7 +1914,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1873,7 +1925,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1884,7 +1936,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1895,7 +1947,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1906,7 +1958,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD81A0C-9D5D-4E81-B93E-3F544B611586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B99664-9FE3-4DF4-BF87-C2C7B4E04F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
   <si>
     <t>Problem</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>Triangle</t>
+  </si>
+  <si>
+    <t>Power of Two</t>
   </si>
 </sst>
 </file>
@@ -364,7 +367,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="63">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1061,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1176,7 +1200,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44567.481191319443</v>
+        <v>44567.719367824073</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1737,6 +1761,20 @@
       </c>
       <c r="D50" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>231</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="12">
+        <v>44567.719275000003</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1749,7 +1787,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D51:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D52:D102">
+    <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="63" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1760,7 +1809,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1771,7 +1820,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1782,7 +1831,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1793,7 +1842,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1804,7 +1853,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1815,7 +1864,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1826,7 +1875,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1837,7 +1886,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1848,7 +1897,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1859,7 +1908,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1870,7 +1919,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1881,7 +1930,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1892,7 +1941,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1903,7 +1952,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1914,7 +1963,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1925,7 +1974,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1936,7 +1985,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1947,7 +1996,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1958,7 +2007,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B99664-9FE3-4DF4-BF87-C2C7B4E04F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1E0A1F-2782-44C3-B931-CD57D74473B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
   <si>
     <t>Problem</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>Power of Two</t>
+  </si>
+  <si>
+    <t>Reversed Bits</t>
   </si>
 </sst>
 </file>
@@ -367,7 +370,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="66">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1085,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1200,7 +1224,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44567.719367824073</v>
+        <v>44568.483760763891</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1774,6 +1798,20 @@
         <v>44567.719275000003</v>
       </c>
       <c r="D51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>190</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="12">
+        <v>44568.483635879631</v>
+      </c>
+      <c r="D52" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1787,7 +1825,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D52:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D53:D102">
+    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="66" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1798,7 +1847,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1809,7 +1858,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1820,7 +1869,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1831,7 +1880,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1842,7 +1891,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1853,7 +1902,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1864,7 +1913,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1875,7 +1924,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1886,7 +1935,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1897,7 +1946,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1908,7 +1957,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1919,7 +1968,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1930,7 +1979,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1941,7 +1990,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1952,7 +2001,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1963,7 +2012,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1974,7 +2023,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1985,7 +2034,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1996,7 +2045,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2007,7 +2056,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1E0A1F-2782-44C3-B931-CD57D74473B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4A2008-154D-4467-ADF8-F776C80CE8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
   <si>
     <t>Problem</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Reversed Bits</t>
+  </si>
+  <si>
+    <t>Single Number</t>
   </si>
 </sst>
 </file>
@@ -370,7 +373,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="69">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1109,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1224,7 +1248,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44568.483760763891</v>
+        <v>44568.532967361112</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1812,6 +1836,20 @@
         <v>44568.483635879631</v>
       </c>
       <c r="D52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>136</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="12">
+        <v>44568.532858217593</v>
+      </c>
+      <c r="D53" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1825,7 +1863,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D53:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D54:D102">
+    <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="69" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1836,7 +1885,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1847,7 +1896,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1858,7 +1907,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1869,7 +1918,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1880,7 +1929,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1891,7 +1940,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1902,7 +1951,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1913,7 +1962,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1924,7 +1973,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1935,7 +1984,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1946,7 +1995,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1957,7 +2006,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1968,7 +2017,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1979,7 +2028,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1990,7 +2039,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2001,7 +2050,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2012,7 +2061,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2023,7 +2072,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2034,7 +2083,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2045,7 +2094,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2056,7 +2105,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2069,8 +2118,9 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="I1" r:id="rId1" xr:uid="{A4B5BB58-DED3-4BB0-89A8-D7070C8194C3}"/>
+    <hyperlink ref="B53" r:id="rId2" display="https://leetcode.com/problems/single-number" xr:uid="{BC30B1EB-3D48-4834-93E6-363C4EF00340}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4A2008-154D-4467-ADF8-F776C80CE8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4180E44B-C730-448F-887C-4AB978FF4266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>Problem</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>Single Number</t>
+  </si>
+  <si>
+    <t>217. Contains Duplicate</t>
   </si>
 </sst>
 </file>
@@ -373,7 +376,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="72">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1133,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1248,7 +1272,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44568.532967361112</v>
+        <v>44568.723800115738</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1850,6 +1874,20 @@
         <v>44568.532858217593</v>
       </c>
       <c r="D53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>217</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="12">
+        <v>44568.723656944443</v>
+      </c>
+      <c r="D54" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1863,7 +1901,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D54:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D55:D102">
+    <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="71" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="72" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1874,7 +1923,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1885,7 +1934,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1896,7 +1945,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1907,7 +1956,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1918,7 +1967,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1929,7 +1978,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1940,7 +1989,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1951,7 +2000,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1962,7 +2011,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1973,7 +2022,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1984,7 +2033,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1995,7 +2044,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2006,7 +2055,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2017,7 +2066,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2028,7 +2077,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2039,7 +2088,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2050,7 +2099,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2061,7 +2110,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2072,7 +2121,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2083,7 +2132,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2094,7 +2143,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2105,7 +2154,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2119,8 +2168,9 @@
   <hyperlinks>
     <hyperlink ref="I1" r:id="rId1" xr:uid="{A4B5BB58-DED3-4BB0-89A8-D7070C8194C3}"/>
     <hyperlink ref="B53" r:id="rId2" display="https://leetcode.com/problems/single-number" xr:uid="{BC30B1EB-3D48-4834-93E6-363C4EF00340}"/>
+    <hyperlink ref="B54" r:id="rId3" display="https://leetcode.com/problems/contains-duplicate/" xr:uid="{864DD902-16B0-4CBA-B134-DCEA4EB8D231}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4180E44B-C730-448F-887C-4AB978FF4266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAE5DF6-3719-4B48-9348-D702C3A0A06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
   <si>
     <t>Problem</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>217. Contains Duplicate</t>
+  </si>
+  <si>
+    <t>53. Maximum Subarray</t>
   </si>
 </sst>
 </file>
@@ -376,7 +379,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="75">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1157,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1272,7 +1296,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44568.723800115738</v>
+        <v>44571.45016458333</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1888,6 +1912,20 @@
         <v>44568.723656944443</v>
       </c>
       <c r="D54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="12">
+        <v>44571.450069907405</v>
+      </c>
+      <c r="D55" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1901,7 +1939,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D55:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D56:D102">
+    <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="74" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="75" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1912,7 +1961,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1923,7 +1972,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1934,7 +1983,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1945,7 +1994,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1956,7 +2005,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1967,7 +2016,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1978,7 +2027,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1989,7 +2038,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2000,7 +2049,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2011,7 +2060,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2022,7 +2071,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2033,7 +2082,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2044,7 +2093,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2055,7 +2104,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2066,7 +2115,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2077,7 +2126,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2088,7 +2137,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2099,7 +2148,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2110,7 +2159,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2121,7 +2170,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2132,7 +2181,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2143,7 +2192,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2154,7 +2203,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D55">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAE5DF6-3719-4B48-9348-D702C3A0A06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C9876D-D5F7-46F0-B754-B04CAE4FAE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
   <si>
     <t>Problem</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>53. Maximum Subarray</t>
+  </si>
+  <si>
+    <t>1. Two Sum</t>
   </si>
 </sst>
 </file>
@@ -379,7 +382,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="75">
+  <dxfs count="78">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1181,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1296,7 +1320,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44571.45016458333</v>
+        <v>44571.486256481483</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1926,6 +1950,20 @@
         <v>44571.450069907405</v>
       </c>
       <c r="D55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="12">
+        <v>44571.486182638888</v>
+      </c>
+      <c r="D56" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1939,7 +1977,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D56:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D57:D102">
+    <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="78" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1950,7 +1999,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1961,7 +2010,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1972,7 +2021,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1983,7 +2032,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1994,7 +2043,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2005,7 +2054,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2016,7 +2065,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2027,7 +2076,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2038,7 +2087,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2049,7 +2098,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2060,7 +2109,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2071,7 +2120,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2082,7 +2131,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2093,7 +2142,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2104,7 +2153,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2115,7 +2164,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2126,7 +2175,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2137,7 +2186,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2148,7 +2197,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2159,7 +2208,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2170,7 +2219,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2181,7 +2230,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2192,7 +2241,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D55">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2203,7 +2252,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C9876D-D5F7-46F0-B754-B04CAE4FAE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC0F3E9-7925-4140-ACC8-354449788122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31680" yWindow="3075" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
   <si>
     <t>Problem</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>1. Two Sum</t>
+  </si>
+  <si>
+    <t>88. Merge Sorted Array</t>
   </si>
 </sst>
 </file>
@@ -382,7 +385,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="81">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1205,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1320,7 +1344,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44571.486256481483</v>
+        <v>44571.695349652779</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1964,6 +1988,20 @@
         <v>44571.486182638888</v>
       </c>
       <c r="D56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>88</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="12">
+        <v>44571.695266435185</v>
+      </c>
+      <c r="D57" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1977,7 +2015,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D57:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D58:D102">
+    <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="81" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1988,7 +2037,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -1999,7 +2048,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2010,7 +2059,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2021,7 +2070,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2032,7 +2081,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2043,7 +2092,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2054,7 +2103,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2065,7 +2114,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2076,7 +2125,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2087,7 +2136,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2098,7 +2147,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2109,7 +2158,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2120,7 +2169,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2131,7 +2180,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2142,7 +2191,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2153,7 +2202,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2164,7 +2213,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2175,7 +2224,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2186,7 +2235,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2197,7 +2246,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2208,7 +2257,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2219,7 +2268,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2230,7 +2279,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D55">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2241,7 +2290,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2252,7 +2301,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC0F3E9-7925-4140-ACC8-354449788122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DF66FE-E091-410B-BD40-5BD2A7CF70C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31680" yWindow="3075" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
   <si>
     <t>Problem</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>88. Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>350. Intersection of Two Arrays II</t>
   </si>
 </sst>
 </file>
@@ -385,7 +388,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="81">
+  <dxfs count="84">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1229,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1344,7 +1368,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44571.695349652779</v>
+        <v>44571.726082870373</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2002,6 +2026,20 @@
         <v>44571.695266435185</v>
       </c>
       <c r="D57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>350</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="12">
+        <v>44571.725942824072</v>
+      </c>
+      <c r="D58" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2015,7 +2053,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D58:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D59:D102">
+    <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="84" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2026,7 +2075,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2037,7 +2086,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2048,7 +2097,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2059,7 +2108,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2070,7 +2119,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2081,7 +2130,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2092,7 +2141,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2103,7 +2152,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2114,7 +2163,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2125,7 +2174,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2136,7 +2185,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2147,7 +2196,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2158,7 +2207,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2169,7 +2218,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2180,7 +2229,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2191,7 +2240,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2202,7 +2251,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2213,7 +2262,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2224,7 +2273,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2235,7 +2284,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2246,7 +2295,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2257,7 +2306,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2268,7 +2317,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D55">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2279,7 +2328,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2290,7 +2339,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2301,7 +2350,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DF66FE-E091-410B-BD40-5BD2A7CF70C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB79239-01B2-4A65-85ED-FDF57DEBDC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31680" yWindow="3075" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1255,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1313,13 +1313,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="12">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -1330,16 +1330,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="12">
-        <v>44511</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
+        <v>44516</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>5</v>
@@ -1347,10 +1344,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>35</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>23</v>
+        <v>278</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C6" s="12">
         <v>44516</v>
@@ -1358,39 +1355,39 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>278</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>29</v>
+        <v>309</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C7" s="12">
         <v>44516</v>
       </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44571.726082870373</v>
+        <v>44572.458725462966</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>309</v>
+        <v>704</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C8" s="12">
         <v>44516</v>
       </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="12">
         <v>44516</v>
@@ -1398,21 +1395,21 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>714</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>36</v>
+        <v>189</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="C10" s="12">
-        <v>44516</v>
+        <v>44517</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>189</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>28</v>
+        <v>977</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C11" s="12">
         <v>44517</v>
@@ -1420,38 +1417,41 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>977</v>
+        <v>283</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C12" s="12">
-        <v>44517</v>
+        <v>44518</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>283</v>
+        <v>167</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" s="12">
         <v>44518</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>167</v>
+        <v>344</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C14" s="12">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
@@ -1459,93 +1459,93 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>344</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>32</v>
+        <v>557</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="12">
         <v>44519</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>557</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>34</v>
+      <c r="B16" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="12">
-        <v>44519</v>
+        <v>44522</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C17" s="12">
-        <v>44522</v>
+        <v>44524</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="12">
+      <c r="B18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="11">
         <v>44524</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C19" s="11">
-        <v>44524</v>
+        <v>44529</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
-        <v>7</v>
+      <c r="A20">
+        <v>328</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C20" s="11">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>328</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>13</v>
+      <c r="B21" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="C21" s="11">
         <v>44530</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>206</v>
+      </c>
       <c r="B22" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C22" s="11">
         <v>44530</v>
@@ -1556,10 +1556,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>206</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="11">
         <v>44530</v>
@@ -1570,13 +1570,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>19</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>8</v>
+        <v>234</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C24" s="11">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1584,96 +1584,96 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>234</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C25" s="11">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>21</v>
-      </c>
       <c r="B26" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C26" s="11">
         <v>44532</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2</v>
+      </c>
       <c r="B27" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C27" s="11">
-        <v>44532</v>
+        <v>44533.546204976854</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="11">
-        <v>44533.546204976854</v>
-      </c>
-      <c r="D28" t="s">
-        <v>38</v>
+      <c r="B28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="12">
+        <v>44536.512189930552</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="9" t="s">
-        <v>40</v>
+      <c r="B29" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C29" s="12">
-        <v>44536.512189930552</v>
+        <v>44536.543766666669</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="7" t="s">
-        <v>41</v>
+      <c r="A30">
+        <v>876</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="C30" s="12">
-        <v>44536.543766666669</v>
+        <v>44536.639974189813</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>876</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>42</v>
+        <v>567</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="C31" s="12">
-        <v>44536.639974189813</v>
+        <v>44536.742515162034</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>567</v>
+        <v>3</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C32" s="12">
-        <v>44536.742515162034</v>
+        <v>44537.487768402774</v>
       </c>
       <c r="D32" t="s">
         <v>21</v>
@@ -1681,24 +1681,24 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>3</v>
+        <v>237</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C33" s="12">
-        <v>44537.487768402774</v>
+        <v>44537.696392245372</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" s="12">
         <v>44537.696392245372</v>
@@ -1709,27 +1709,27 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>191</v>
+        <v>973</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" s="12">
-        <v>44537.696392245372</v>
+        <v>44537.758970023147</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>973</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>46</v>
+        <v>5</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="C36" s="12">
-        <v>44537.758970023147</v>
+        <v>44537.759664351855</v>
       </c>
       <c r="D36" t="s">
         <v>21</v>
@@ -1737,83 +1737,83 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>5</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>47</v>
+        <v>1326</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C37" s="12">
-        <v>44537.759664351855</v>
+        <v>44544.671527777777</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>1326</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>48</v>
+        <v>733</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="C38" s="12">
-        <v>44544.671527777777</v>
+        <v>44545.451388888891</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>733</v>
+        <v>695</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C39" s="12">
-        <v>44545.451388888891</v>
+        <v>44545.58037152778</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>695</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>50</v>
+        <v>617</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C40" s="12">
-        <v>44545.58037152778</v>
+        <v>44545.755876157411</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>617</v>
+        <v>116</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C41" s="12">
-        <v>44545.755876157411</v>
+        <v>44551.533077546293</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>116</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>52</v>
+        <v>542</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="C42" s="12">
-        <v>44551.533077546293</v>
+        <v>44558.680590046293</v>
       </c>
       <c r="D42" t="s">
         <v>21</v>
@@ -1821,13 +1821,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>542</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>53</v>
+        <v>994</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="C43" s="12">
-        <v>44558.680590046293</v>
+        <v>44558.894684722225</v>
       </c>
       <c r="D43" t="s">
         <v>21</v>
@@ -1835,13 +1835,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>994</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>54</v>
+        <v>77</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="C44" s="12">
-        <v>44558.894684722225</v>
+        <v>44564.717862731479</v>
       </c>
       <c r="D44" t="s">
         <v>21</v>
@@ -1849,13 +1849,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>77</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="C45" s="12">
-        <v>44564.717862731479</v>
+        <v>44565.481913310185</v>
       </c>
       <c r="D45" t="s">
         <v>21</v>
@@ -1863,13 +1863,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>46</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>56</v>
+        <v>781</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="C46" s="12">
-        <v>44565.481913310185</v>
+        <v>44566.531255787035</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
@@ -1877,41 +1877,41 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>781</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>58</v>
+        <v>70</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="C47" s="12">
-        <v>44566.531255787035</v>
+        <v>44566.600786921299</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C48" s="12">
-        <v>44566.600786921299</v>
+        <v>44566.616995486111</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>198</v>
+        <v>120</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" s="12">
-        <v>44566.616995486111</v>
+        <v>44567.481120601849</v>
       </c>
       <c r="D49" t="s">
         <v>21</v>
@@ -1919,27 +1919,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>120</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>60</v>
+        <v>231</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="C50" s="12">
-        <v>44567.481120601849</v>
+        <v>44567.719275000003</v>
       </c>
       <c r="D50" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51" s="12">
-        <v>44567.719275000003</v>
+        <v>44568.483635879631</v>
       </c>
       <c r="D51" t="s">
         <v>24</v>
@@ -1947,13 +1947,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C52" s="12">
-        <v>44568.483635879631</v>
+        <v>44568.532858217593</v>
       </c>
       <c r="D52" t="s">
         <v>24</v>
@@ -1961,13 +1961,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>136</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>63</v>
+        <v>217</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="C53" s="12">
-        <v>44568.532858217593</v>
+        <v>44568.723656944443</v>
       </c>
       <c r="D53" t="s">
         <v>24</v>
@@ -1975,13 +1975,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>217</v>
+        <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54" s="12">
-        <v>44568.723656944443</v>
+        <v>44571.450069907405</v>
       </c>
       <c r="D54" t="s">
         <v>24</v>
@@ -1989,13 +1989,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C55" s="12">
-        <v>44571.450069907405</v>
+        <v>44571.486182638888</v>
       </c>
       <c r="D55" t="s">
         <v>24</v>
@@ -2003,13 +2003,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>66</v>
+        <v>88</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="C56" s="12">
-        <v>44571.486182638888</v>
+        <v>44571.695266435185</v>
       </c>
       <c r="D56" t="s">
         <v>24</v>
@@ -2017,13 +2017,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>88</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>67</v>
+        <v>350</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="C57" s="12">
-        <v>44571.695266435185</v>
+        <v>44571.725942824072</v>
       </c>
       <c r="D57" t="s">
         <v>24</v>
@@ -2031,21 +2031,21 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>350</v>
+        <v>121</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C58" s="12">
-        <v>44571.725942824072</v>
-      </c>
-      <c r="D58" t="s">
+        <v>44572.458006134257</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D33">
+  <autoFilter ref="A1:D58" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D58">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
@@ -2363,8 +2363,8 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="I1" r:id="rId1" xr:uid="{A4B5BB58-DED3-4BB0-89A8-D7070C8194C3}"/>
-    <hyperlink ref="B53" r:id="rId2" display="https://leetcode.com/problems/single-number" xr:uid="{BC30B1EB-3D48-4834-93E6-363C4EF00340}"/>
-    <hyperlink ref="B54" r:id="rId3" display="https://leetcode.com/problems/contains-duplicate/" xr:uid="{864DD902-16B0-4CBA-B134-DCEA4EB8D231}"/>
+    <hyperlink ref="B52" r:id="rId2" display="https://leetcode.com/problems/single-number" xr:uid="{BC30B1EB-3D48-4834-93E6-363C4EF00340}"/>
+    <hyperlink ref="B53" r:id="rId3" display="https://leetcode.com/problems/contains-duplicate/" xr:uid="{864DD902-16B0-4CBA-B134-DCEA4EB8D231}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB79239-01B2-4A65-85ED-FDF57DEBDC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18188810-FABB-4634-9D80-B68CCAC46B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="70">
   <si>
     <t>Problem</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>350. Intersection of Two Arrays II</t>
+  </si>
+  <si>
+    <t>566. Reshape the Matrix</t>
   </si>
 </sst>
 </file>
@@ -388,7 +391,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="84">
+  <dxfs count="87">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1253,9 +1277,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
@@ -1368,7 +1392,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44572.458725462966</v>
+        <v>44572.521919907405</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2040,6 +2064,20 @@
         <v>44572.458006134257</v>
       </c>
       <c r="D58" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>566</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="12">
+        <v>44572.52184548611</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2053,7 +2091,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D59:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D60:D102">
+    <cfRule type="cellIs" dxfId="86" priority="85" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="86" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="87" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2064,7 +2113,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2075,7 +2124,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2086,7 +2135,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2097,7 +2146,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2108,7 +2157,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2119,7 +2168,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2130,7 +2179,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2141,7 +2190,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2152,7 +2201,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2163,7 +2212,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2174,7 +2223,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2185,7 +2234,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2196,7 +2245,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2207,7 +2256,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2218,7 +2267,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2229,7 +2278,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2240,7 +2289,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2251,7 +2300,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2262,7 +2311,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2273,7 +2322,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2284,7 +2333,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2295,7 +2344,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2306,7 +2355,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D55">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2317,7 +2366,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2328,7 +2377,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2339,7 +2388,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2350,7 +2399,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D59">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18188810-FABB-4634-9D80-B68CCAC46B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFABAD2-73BD-4522-8D05-9CFC12B4819B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="71">
   <si>
     <t>Problem</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>566. Reshape the Matrix</t>
+  </si>
+  <si>
+    <t>118. Pascal's Triangle</t>
   </si>
 </sst>
 </file>
@@ -391,7 +394,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="87">
+  <dxfs count="90">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1277,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1392,7 +1416,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44572.521919907405</v>
+        <v>44572.601922337963</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2078,6 +2102,20 @@
         <v>44572.52184548611</v>
       </c>
       <c r="D59" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>118</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="12">
+        <v>44572.601851388892</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2091,7 +2129,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D60:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D61:D102">
+    <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="89" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="90" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="86" priority="85" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2102,7 +2151,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2113,7 +2162,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2124,7 +2173,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2135,7 +2184,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2146,7 +2195,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2157,7 +2206,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2168,7 +2217,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2179,7 +2228,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2190,7 +2239,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2201,7 +2250,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2212,7 +2261,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2223,7 +2272,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2234,7 +2283,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2245,7 +2294,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2256,7 +2305,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2267,7 +2316,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2278,7 +2327,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2289,7 +2338,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2300,7 +2349,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2311,7 +2360,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2322,7 +2371,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2333,7 +2382,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2344,7 +2393,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D55">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2355,7 +2404,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2366,7 +2415,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2377,7 +2426,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2388,7 +2437,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D59">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2399,7 +2448,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D60">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFABAD2-73BD-4522-8D05-9CFC12B4819B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8312A66F-93D5-4FDB-A79C-0B08D9F2D21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="72">
   <si>
     <t>Problem</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>118. Pascal's Triangle</t>
+  </si>
+  <si>
+    <t>36. Valid Sudoku</t>
   </si>
 </sst>
 </file>
@@ -394,7 +397,91 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="102">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1301,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1416,7 +1503,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44572.601922337963</v>
+        <v>44573.637497569442</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2109,7 +2196,7 @@
       <c r="A60">
         <v>118</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C60" s="12">
@@ -2117,6 +2204,20 @@
       </c>
       <c r="D60" s="9" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>36</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="12">
+        <v>44573.636434490742</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2129,326 +2230,337 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D61:D102">
-    <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="89" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="90" operator="equal">
+  <conditionalFormatting sqref="D2:D30 D38 D63:D102">
+    <cfRule type="cellIs" dxfId="101" priority="97" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="98" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="99" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="86" priority="85" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="86" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="94" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="95" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="96" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="91" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="92" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="93" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="88" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="89" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="90" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="85" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="86" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="87" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="74" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="82" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="83" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="84" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="71" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="79" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="80" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="81" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="76" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="73" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="74" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="75" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="70" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="71" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="72" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="67" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="68" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="69" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="64" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="61" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="62" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="63" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="58" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="55" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="56" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="57" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="52" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="49" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="43" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="44" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="37" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8312A66F-93D5-4FDB-A79C-0B08D9F2D21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EB0B9A-AD04-4BC3-BB95-933A86372510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="73">
   <si>
     <t>Problem</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>36. Valid Sudoku</t>
+  </si>
+  <si>
+    <t>74. Search a 2D Matrix</t>
   </si>
 </sst>
 </file>
@@ -397,7 +400,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="102">
+  <dxfs count="105">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1388,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1503,7 +1527,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44573.637497569442</v>
+        <v>44573.73522696759</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2217,6 +2241,20 @@
         <v>44573.636434490742</v>
       </c>
       <c r="D61" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>74</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="12">
+        <v>44573.735071643518</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2231,6 +2269,17 @@
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
   <conditionalFormatting sqref="D2:D30 D38 D63:D102">
+    <cfRule type="cellIs" dxfId="104" priority="100" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="101" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="102" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="101" priority="97" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2241,7 +2290,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="98" priority="94" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2252,7 +2301,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="95" priority="91" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2263,7 +2312,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="92" priority="88" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2274,7 +2323,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="89" priority="85" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2285,7 +2334,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="86" priority="82" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2296,7 +2345,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="83" priority="79" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2307,7 +2356,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="80" priority="76" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2318,7 +2367,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="77" priority="73" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2329,7 +2378,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="74" priority="70" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2340,7 +2389,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="71" priority="67" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2351,7 +2400,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="68" priority="64" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2362,7 +2411,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="65" priority="61" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2373,7 +2422,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="62" priority="58" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2384,7 +2433,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="59" priority="55" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2395,7 +2444,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="56" priority="52" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2406,7 +2455,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="53" priority="49" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2417,7 +2466,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2428,7 +2477,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="47" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2439,7 +2488,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2450,7 +2499,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="41" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2461,7 +2510,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2472,7 +2521,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2483,7 +2532,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D55">
     <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2494,7 +2543,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2505,7 +2554,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2516,7 +2565,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2527,7 +2576,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D59">
     <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2538,7 +2587,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D60">
     <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2549,18 +2598,18 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
-      <formula>"Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EB0B9A-AD04-4BC3-BB95-933A86372510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B57C96-DDED-47FE-AFE2-44C4A5ED0455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
   <si>
     <t>Problem</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>74. Search a 2D Matrix</t>
+  </si>
+  <si>
+    <t>387. First Unique Character in a String</t>
   </si>
 </sst>
 </file>
@@ -400,49 +403,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="105">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="99">
     <dxf>
       <fill>
         <patternFill>
@@ -1412,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1527,7 +1488,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44573.73522696759</v>
+        <v>44574.497024999997</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2256,6 +2217,20 @@
       </c>
       <c r="D62" s="9" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>387</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="12">
+        <v>44574.496869212962</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2268,337 +2243,348 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D63:D102">
-    <cfRule type="cellIs" dxfId="104" priority="100" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="101" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="102" operator="equal">
+  <conditionalFormatting sqref="D2:D30 D38 D64:D102">
+    <cfRule type="cellIs" dxfId="98" priority="103" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="104" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="105" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="101" priority="97" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="98" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="100" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="101" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="102" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="98" priority="94" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="95" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="97" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="98" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="99" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="95" priority="91" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="92" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="94" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="95" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="96" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="92" priority="88" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="89" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="91" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="92" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="93" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="89" priority="85" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="86" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="88" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="89" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="90" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="86" priority="82" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="83" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="85" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="86" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="87" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="83" priority="79" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="80" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="82" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="83" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="84" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="80" priority="76" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="79" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="80" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="81" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="77" priority="73" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="74" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="77" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="78" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="74" priority="70" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="71" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="73" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="74" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="75" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="71" priority="67" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="68" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="71" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="72" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="68" priority="64" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="68" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="69" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="65" priority="61" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="62" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="64" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="65" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="66" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="62" priority="58" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="62" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="63" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="59" priority="55" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="56" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="59" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="60" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="56" priority="52" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="56" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="57" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="53" priority="49" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="53" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="54" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="50" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="51" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="47" priority="43" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="44" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="46" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="47" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="48" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="44" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="45" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="41" priority="37" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="41" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="42" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="38" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="39" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="36" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="32" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="33" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="30" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2609,7 +2595,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
+  <conditionalFormatting sqref="D63">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B57C96-DDED-47FE-AFE2-44C4A5ED0455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362B8631-E717-47B9-891B-4853F77A17D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="75">
   <si>
     <t>Problem</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>387. First Unique Character in a String</t>
+  </si>
+  <si>
+    <t>383. Ransom Note</t>
   </si>
 </sst>
 </file>
@@ -403,7 +406,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="99">
+  <dxfs count="102">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1373,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1488,7 +1512,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44574.497024999997</v>
+        <v>44574.51601284722</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2230,6 +2254,20 @@
         <v>44574.496869212962</v>
       </c>
       <c r="D63" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>383</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="12">
+        <v>44574.515946643522</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2243,7 +2281,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D64:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D65:D102">
+    <cfRule type="cellIs" dxfId="101" priority="106" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="107" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="108" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="98" priority="103" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2254,7 +2303,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="95" priority="100" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2265,7 +2314,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="92" priority="97" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2276,7 +2325,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="89" priority="94" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2287,7 +2336,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="86" priority="91" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2298,7 +2347,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="83" priority="88" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2309,7 +2358,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="80" priority="85" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2320,7 +2369,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="77" priority="82" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2331,7 +2380,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="74" priority="79" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2342,7 +2391,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2353,7 +2402,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="68" priority="73" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2364,7 +2413,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2375,7 +2424,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2386,7 +2435,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="59" priority="64" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2397,7 +2446,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2408,7 +2457,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2419,7 +2468,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2430,7 +2479,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2441,7 +2490,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2452,7 +2501,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="41" priority="46" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2463,7 +2512,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2474,7 +2523,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2485,7 +2534,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2496,7 +2545,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D55">
     <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2507,7 +2556,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2518,7 +2567,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2529,7 +2578,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2540,7 +2589,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D59">
     <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2551,7 +2600,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D60">
     <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2562,18 +2611,18 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
-      <formula>"Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2584,7 +2633,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
+  <conditionalFormatting sqref="D63">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2595,7 +2644,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="D64">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362B8631-E717-47B9-891B-4853F77A17D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3CD626-2D54-48A3-A807-F0E812182589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="76">
   <si>
     <t>Problem</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>383. Ransom Note</t>
+  </si>
+  <si>
+    <t>242. Valid Anagram</t>
   </si>
 </sst>
 </file>
@@ -406,7 +409,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="102">
+  <dxfs count="105">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1397,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1512,7 +1536,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44574.51601284722</v>
+        <v>44574.529351041667</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2257,7 +2281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>383</v>
       </c>
@@ -2268,6 +2292,20 @@
         <v>44574.515946643522</v>
       </c>
       <c r="D64" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>242</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="12">
+        <v>44574.529263773147</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2281,7 +2319,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D65:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D66:D102">
+    <cfRule type="cellIs" dxfId="104" priority="109" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="110" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="111" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="101" priority="106" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2292,7 +2341,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="98" priority="103" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2303,7 +2352,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="95" priority="100" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2314,7 +2363,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="92" priority="97" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2325,7 +2374,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="89" priority="94" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2336,7 +2385,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="86" priority="91" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2347,7 +2396,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="83" priority="88" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2358,7 +2407,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="80" priority="85" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2369,7 +2418,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="77" priority="82" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2380,7 +2429,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="74" priority="79" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2391,7 +2440,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2402,7 +2451,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="68" priority="73" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2413,7 +2462,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2424,7 +2473,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2435,7 +2484,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="59" priority="64" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2446,7 +2495,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2457,7 +2506,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2468,7 +2517,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2479,7 +2528,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2490,7 +2539,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2501,7 +2550,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="41" priority="46" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2512,7 +2561,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2523,7 +2572,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2534,7 +2583,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D55">
     <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2545,7 +2594,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2556,7 +2605,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2567,7 +2616,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2578,7 +2627,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D59">
     <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2589,7 +2638,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D60">
     <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2600,18 +2649,18 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
-      <formula>"Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2622,7 +2671,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
+  <conditionalFormatting sqref="D63">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2633,7 +2682,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="D64">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2644,7 +2693,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D65">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3CD626-2D54-48A3-A807-F0E812182589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B824C14A-A2B0-4FA0-BCE6-E45637BCB07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1423,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44574.529351041667</v>
+        <v>44574.534476736109</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1662,6 +1662,9 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>141</v>
+      </c>
       <c r="B18" s="7" t="s">
         <v>11</v>
       </c>
@@ -1698,6 +1701,9 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>203</v>
+      </c>
       <c r="B21" s="9" t="s">
         <v>12</v>
       </c>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B824C14A-A2B0-4FA0-BCE6-E45637BCB07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774729F1-4032-481A-8E7A-4DA33BE7BC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
   <si>
     <t>Problem</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>242. Valid Anagram</t>
+  </si>
+  <si>
+    <t>20. Valid Parentheses</t>
   </si>
 </sst>
 </file>
@@ -409,7 +412,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="105">
+  <dxfs count="108">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1421,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1536,7 +1560,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44574.534476736109</v>
+        <v>44574.618118402781</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2312,6 +2336,20 @@
         <v>44574.529263773147</v>
       </c>
       <c r="D65" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>20</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="12">
+        <v>44574.617818634259</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2325,7 +2363,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D66:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D67:D102">
+    <cfRule type="cellIs" dxfId="107" priority="112" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="113" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="114" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="104" priority="109" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2336,7 +2385,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="101" priority="106" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2347,7 +2396,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="98" priority="103" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2358,7 +2407,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="95" priority="100" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2369,7 +2418,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="92" priority="97" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2380,7 +2429,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="89" priority="94" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2391,7 +2440,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="86" priority="91" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2402,7 +2451,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="83" priority="88" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2413,7 +2462,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="80" priority="85" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2424,7 +2473,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="77" priority="82" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2435,7 +2484,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="74" priority="79" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2446,7 +2495,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2457,7 +2506,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="68" priority="73" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2468,7 +2517,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2479,7 +2528,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2490,7 +2539,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="59" priority="64" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2501,7 +2550,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2512,7 +2561,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2523,7 +2572,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2534,7 +2583,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2545,7 +2594,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2556,7 +2605,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="cellIs" dxfId="41" priority="46" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2567,7 +2616,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2578,7 +2627,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D55">
     <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2589,7 +2638,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2600,7 +2649,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2611,7 +2660,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2622,7 +2671,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D59">
     <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2633,7 +2682,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D60">
     <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2644,18 +2693,18 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
-      <formula>"Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2666,7 +2715,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
+  <conditionalFormatting sqref="D63">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2677,7 +2726,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="D64">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2688,7 +2737,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D65">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2699,7 +2748,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D66">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774729F1-4032-481A-8E7A-4DA33BE7BC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C234BA90-AA57-4DCE-ABF2-D808162369DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
   <si>
     <t>Problem</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>20. Valid Parentheses</t>
+  </si>
+  <si>
+    <t>232. Implement Queue using Stacks</t>
   </si>
 </sst>
 </file>
@@ -412,7 +415,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="108">
+  <dxfs count="111">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1445,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1560,7 +1584,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44574.618118402781</v>
+        <v>44574.71271226852</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2350,6 +2374,20 @@
         <v>44574.617818634259</v>
       </c>
       <c r="D66" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>232</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" s="12">
+        <v>44574.712636458331</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2363,7 +2401,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D67:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D68:D102">
+    <cfRule type="cellIs" dxfId="110" priority="115" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="116" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="117" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="107" priority="112" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2374,7 +2423,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="104" priority="109" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2385,7 +2434,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="101" priority="106" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2396,7 +2445,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="98" priority="103" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2407,7 +2456,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="95" priority="100" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2418,7 +2467,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="92" priority="97" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2429,7 +2478,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="89" priority="94" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2440,7 +2489,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="86" priority="91" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2451,7 +2500,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="83" priority="88" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2462,7 +2511,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="80" priority="85" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2473,7 +2522,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="77" priority="82" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2484,7 +2533,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="74" priority="79" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2495,7 +2544,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2506,7 +2555,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="68" priority="73" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2517,7 +2566,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2528,7 +2577,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2539,7 +2588,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="59" priority="64" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2550,7 +2599,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2561,7 +2610,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2572,7 +2621,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2583,7 +2632,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2594,7 +2643,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2605,7 +2654,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="cellIs" dxfId="41" priority="46" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2616,7 +2665,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D55">
     <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2627,7 +2676,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2638,7 +2687,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2649,7 +2698,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2660,7 +2709,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D59">
     <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2671,7 +2720,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D60">
     <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2682,18 +2731,18 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
-      <formula>"Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2704,7 +2753,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
+  <conditionalFormatting sqref="D63">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2715,7 +2764,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="D64">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2726,7 +2775,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D65">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2737,7 +2786,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D66">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2748,7 +2797,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
+  <conditionalFormatting sqref="D67">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C234BA90-AA57-4DCE-ABF2-D808162369DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B479F720-432F-4145-9D3A-E87BD5C085E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="79">
   <si>
     <t>Problem</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>232. Implement Queue using Stacks</t>
+  </si>
+  <si>
+    <t>83. Remove Duplicates from Sorted List</t>
   </si>
 </sst>
 </file>
@@ -415,7 +418,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="111">
+  <dxfs count="114">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1469,10 +1493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1584,7 +1608,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44574.71271226852</v>
+        <v>44577.647102314811</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2381,13 +2405,27 @@
       <c r="A67">
         <v>232</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C67" s="12">
         <v>44574.712636458331</v>
       </c>
       <c r="D67" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>83</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="12">
+        <v>44577.64645162037</v>
+      </c>
+      <c r="D68" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2401,7 +2439,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D68:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D69:D102">
+    <cfRule type="cellIs" dxfId="113" priority="118" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="119" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="120" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="110" priority="115" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2412,7 +2461,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="107" priority="112" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2423,7 +2472,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="104" priority="109" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2434,7 +2483,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="101" priority="106" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2445,7 +2494,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="98" priority="103" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2456,7 +2505,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="95" priority="100" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2467,7 +2516,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="92" priority="97" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2478,7 +2527,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="89" priority="94" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2489,7 +2538,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="86" priority="91" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2500,7 +2549,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="83" priority="88" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2511,7 +2560,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="80" priority="85" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2522,7 +2571,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="77" priority="82" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2533,7 +2582,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="74" priority="79" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2544,7 +2593,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2555,7 +2604,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="68" priority="73" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2566,7 +2615,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2577,7 +2626,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2588,7 +2637,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="59" priority="64" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2599,7 +2648,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2610,7 +2659,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2621,7 +2670,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2632,7 +2681,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2643,7 +2692,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2654,7 +2703,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D55">
     <cfRule type="cellIs" dxfId="41" priority="46" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2665,7 +2714,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2676,7 +2725,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2687,7 +2736,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2698,7 +2747,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D59">
     <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2709,7 +2758,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D60">
     <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2720,18 +2769,18 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="30" operator="equal">
-      <formula>"Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2742,7 +2791,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
+  <conditionalFormatting sqref="D63">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2753,7 +2802,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="D64">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2764,7 +2813,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D65">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2775,7 +2824,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D66">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2786,7 +2835,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
+  <conditionalFormatting sqref="D67">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2797,7 +2846,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
+  <conditionalFormatting sqref="D68">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B479F720-432F-4145-9D3A-E87BD5C085E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949F5E7F-296B-4924-A042-8FF0A9840290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-6810" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
   <si>
     <t>Problem</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>83. Remove Duplicates from Sorted List</t>
+  </si>
+  <si>
+    <t>binary_tree_01_preorder_traversal</t>
   </si>
 </sst>
 </file>
@@ -1493,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1608,7 +1611,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44577.647102314811</v>
+        <v>44578.482271990739</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2426,6 +2429,20 @@
         <v>44577.64645162037</v>
       </c>
       <c r="D68" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>144</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="10">
+        <v>44578.482051388892</v>
+      </c>
+      <c r="D69" t="s">
         <v>24</v>
       </c>
     </row>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949F5E7F-296B-4924-A042-8FF0A9840290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D48FC57-3AEF-4C79-8505-6CA5136D3654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-6810" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
   <si>
     <t>Problem</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>binary_tree_01_preorder_traversal</t>
+  </si>
+  <si>
+    <t>binary_tree_02_inorder_traversal</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="114">
+  <dxfs count="117">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1496,10 +1520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1611,7 +1635,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44578.482271990739</v>
+        <v>44578.523658680555</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2443,6 +2467,20 @@
         <v>44578.482051388892</v>
       </c>
       <c r="D69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>94</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="10">
+        <v>44578.52359016204</v>
+      </c>
+      <c r="D70" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2456,7 +2494,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D69:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D69 D71:D102">
+    <cfRule type="cellIs" dxfId="116" priority="121" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="122" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="123" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="113" priority="118" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2467,7 +2516,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="110" priority="115" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2478,7 +2527,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="107" priority="112" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2489,7 +2538,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="104" priority="109" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2500,7 +2549,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="101" priority="106" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2511,7 +2560,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="98" priority="103" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2522,7 +2571,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="95" priority="100" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2533,7 +2582,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="92" priority="97" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2544,7 +2593,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="89" priority="94" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2555,7 +2604,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="86" priority="91" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2566,7 +2615,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="83" priority="88" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2577,7 +2626,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="80" priority="85" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2588,7 +2637,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="77" priority="82" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2599,7 +2648,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="74" priority="79" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2610,7 +2659,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2621,7 +2670,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="68" priority="73" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2632,7 +2681,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2643,7 +2692,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2654,7 +2703,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="59" priority="64" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2665,7 +2714,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2676,7 +2725,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2687,7 +2736,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2698,7 +2747,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2709,7 +2758,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D55">
     <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2720,7 +2769,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="cellIs" dxfId="41" priority="46" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2731,7 +2780,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2742,7 +2791,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2753,7 +2802,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D59">
     <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2764,7 +2813,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D60">
     <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2775,18 +2824,18 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="32" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="33" operator="equal">
-      <formula>"Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2797,7 +2846,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
+  <conditionalFormatting sqref="D63">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2808,7 +2857,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="D64">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2819,7 +2868,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D65">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2830,7 +2879,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D66">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2841,7 +2890,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
+  <conditionalFormatting sqref="D67">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2852,7 +2901,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
+  <conditionalFormatting sqref="D68">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2863,7 +2912,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
+  <conditionalFormatting sqref="D70">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D48FC57-3AEF-4C79-8505-6CA5136D3654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB03781-6E8F-4EB2-BCC3-0B8B8E6BF63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-6810" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
   <si>
     <t>Problem</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>binary_tree_02_inorder_traversal</t>
+  </si>
+  <si>
+    <t>binary_tree_03_postorder_traversal</t>
   </si>
 </sst>
 </file>
@@ -424,7 +427,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="117">
+  <dxfs count="120">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1520,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B72" sqref="B72"/>
@@ -1635,7 +1659,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44578.523658680555</v>
+        <v>44578.631981250001</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2481,6 +2505,20 @@
         <v>44578.52359016204</v>
       </c>
       <c r="D70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>145</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" s="10">
+        <v>44578.631918749998</v>
+      </c>
+      <c r="D71" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2494,7 +2532,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D69 D71:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D69 D72:D102">
+    <cfRule type="cellIs" dxfId="119" priority="124" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="125" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="126" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="116" priority="121" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2505,7 +2554,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="113" priority="118" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2516,7 +2565,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="110" priority="115" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2527,7 +2576,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="107" priority="112" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2538,7 +2587,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="104" priority="109" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2549,7 +2598,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="101" priority="106" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2560,7 +2609,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="98" priority="103" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2571,7 +2620,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="95" priority="100" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2582,7 +2631,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="92" priority="97" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2593,7 +2642,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="89" priority="94" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2604,7 +2653,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="86" priority="91" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2615,7 +2664,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="83" priority="88" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2626,7 +2675,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="80" priority="85" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2637,7 +2686,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="77" priority="82" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2648,7 +2697,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="74" priority="79" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2659,7 +2708,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2670,7 +2719,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="68" priority="73" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2681,7 +2730,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2692,7 +2741,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2703,7 +2752,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="59" priority="64" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2714,7 +2763,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2725,7 +2774,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2736,7 +2785,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2747,7 +2796,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D55">
     <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2758,7 +2807,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2769,7 +2818,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="cellIs" dxfId="41" priority="46" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2780,7 +2829,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2791,7 +2840,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D59">
     <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2802,7 +2851,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D60">
     <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2813,18 +2862,18 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="36" operator="equal">
-      <formula>"Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2835,7 +2884,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
+  <conditionalFormatting sqref="D63">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2846,7 +2895,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="D64">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2857,7 +2906,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D65">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2868,7 +2917,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D66">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2879,7 +2928,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
+  <conditionalFormatting sqref="D67">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2890,7 +2939,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
+  <conditionalFormatting sqref="D68">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2901,7 +2950,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
+  <conditionalFormatting sqref="D70">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2912,7 +2961,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
+  <conditionalFormatting sqref="D71">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB03781-6E8F-4EB2-BCC3-0B8B8E6BF63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0F12A1-5E23-4C9F-AD94-3565287FDB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-6810" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="83">
   <si>
     <t>Problem</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>binary_tree_03_postorder_traversal</t>
+  </si>
+  <si>
+    <t>binary_tree_04_level_order_traversal</t>
   </si>
 </sst>
 </file>
@@ -427,7 +430,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="120">
+  <dxfs count="123">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1544,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1659,7 +1683,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44578.631981250001</v>
+        <v>44578.702202083332</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2520,6 +2544,20 @@
       </c>
       <c r="D71" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>102</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="10">
+        <v>44578.702042824072</v>
+      </c>
+      <c r="D72" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2532,7 +2570,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D69 D72:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D69 D73:D102">
+    <cfRule type="cellIs" dxfId="122" priority="127" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="128" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="129" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="119" priority="124" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2543,7 +2592,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="116" priority="121" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2554,7 +2603,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="113" priority="118" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2565,7 +2614,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="110" priority="115" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2576,7 +2625,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="107" priority="112" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2587,7 +2636,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="104" priority="109" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2598,7 +2647,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="101" priority="106" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2609,7 +2658,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="98" priority="103" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2620,7 +2669,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="95" priority="100" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2631,7 +2680,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="92" priority="97" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2642,7 +2691,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="89" priority="94" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2653,7 +2702,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="86" priority="91" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2664,7 +2713,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="83" priority="88" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2675,7 +2724,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="80" priority="85" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2686,7 +2735,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="77" priority="82" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2697,7 +2746,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="74" priority="79" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2708,7 +2757,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2719,7 +2768,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="68" priority="73" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2730,7 +2779,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2741,7 +2790,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2752,7 +2801,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="59" priority="64" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2763,7 +2812,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2774,7 +2823,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2785,7 +2834,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D55">
     <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2796,7 +2845,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2807,7 +2856,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2818,7 +2867,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="cellIs" dxfId="41" priority="46" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2829,7 +2878,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D59">
     <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2840,7 +2889,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D60">
     <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2851,18 +2900,18 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="38" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="39" operator="equal">
-      <formula>"Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2873,7 +2922,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
+  <conditionalFormatting sqref="D63">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2884,7 +2933,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="D64">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2895,7 +2944,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D65">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2906,7 +2955,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D66">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2917,7 +2966,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
+  <conditionalFormatting sqref="D67">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2928,7 +2977,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
+  <conditionalFormatting sqref="D68">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2939,7 +2988,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
+  <conditionalFormatting sqref="D70">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2950,7 +2999,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
+  <conditionalFormatting sqref="D71">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2961,7 +3010,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
+  <conditionalFormatting sqref="D72">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0F12A1-5E23-4C9F-AD94-3565287FDB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3520AC56-C7A9-454A-820A-9089B92E4234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
   <si>
     <t>Problem</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>binary_tree_04_level_order_traversal</t>
+  </si>
+  <si>
+    <t>binary_tree_05_max_depth</t>
   </si>
 </sst>
 </file>
@@ -430,7 +433,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="123">
+  <dxfs count="126">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1568,10 +1592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1683,7 +1707,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44578.702202083332</v>
+        <v>44578.737821527779</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2558,6 +2582,20 @@
       </c>
       <c r="D72" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>104</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="10">
+        <v>44578.737702430553</v>
+      </c>
+      <c r="D73" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2570,7 +2608,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D69 D73:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D69 D74:D102">
+    <cfRule type="cellIs" dxfId="125" priority="130" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="131" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="132" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="122" priority="127" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2581,7 +2630,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="119" priority="124" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2592,7 +2641,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="116" priority="121" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2603,7 +2652,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="113" priority="118" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2614,7 +2663,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="110" priority="115" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2625,7 +2674,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="107" priority="112" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2636,7 +2685,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="104" priority="109" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2647,7 +2696,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="101" priority="106" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2658,7 +2707,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="98" priority="103" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2669,7 +2718,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="95" priority="100" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2680,7 +2729,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="92" priority="97" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2691,7 +2740,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="89" priority="94" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2702,7 +2751,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="86" priority="91" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2713,7 +2762,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="83" priority="88" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2724,7 +2773,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="80" priority="85" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2735,7 +2784,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="77" priority="82" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2746,7 +2795,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="74" priority="79" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2757,7 +2806,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2768,7 +2817,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="68" priority="73" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2779,7 +2828,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2790,7 +2839,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2801,7 +2850,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="cellIs" dxfId="59" priority="64" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2812,7 +2861,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2823,7 +2872,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D55">
     <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2834,7 +2883,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2845,7 +2894,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2856,7 +2905,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2867,7 +2916,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D59">
     <cfRule type="cellIs" dxfId="41" priority="46" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2878,7 +2927,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D60">
     <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2889,18 +2938,18 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="41" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="42" operator="equal">
-      <formula>"Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2911,7 +2960,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
+  <conditionalFormatting sqref="D63">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2922,7 +2971,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="D64">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2933,7 +2982,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D65">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2944,7 +2993,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D66">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2955,7 +3004,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
+  <conditionalFormatting sqref="D67">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2966,7 +3015,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
+  <conditionalFormatting sqref="D68">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2977,7 +3026,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
+  <conditionalFormatting sqref="D70">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2988,7 +3037,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
+  <conditionalFormatting sqref="D71">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2999,7 +3048,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
+  <conditionalFormatting sqref="D72">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3010,7 +3059,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
+  <conditionalFormatting sqref="D73">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3520AC56-C7A9-454A-820A-9089B92E4234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C34078-42BC-48A9-87E2-AE5E9D818FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30510" yWindow="720" windowWidth="12150" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="85">
   <si>
     <t>Problem</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>binary_tree_05_max_depth</t>
+  </si>
+  <si>
+    <t>binary_tree_06_symmetric_tree</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="126">
+  <dxfs count="129">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1592,10 +1616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1707,7 +1731,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44578.737821527779</v>
+        <v>44579.67350300926</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2595,6 +2619,20 @@
         <v>44578.737702430553</v>
       </c>
       <c r="D73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>101</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" s="10">
+        <v>44579.673372106481</v>
+      </c>
+      <c r="D74" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2608,7 +2646,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D69 D74:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D69 D75:D102">
+    <cfRule type="cellIs" dxfId="128" priority="133" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="134" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="135" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="125" priority="130" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2619,7 +2668,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="122" priority="127" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2630,7 +2679,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="119" priority="124" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2641,7 +2690,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="116" priority="121" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2652,7 +2701,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="113" priority="118" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2663,7 +2712,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="110" priority="115" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2674,7 +2723,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="107" priority="112" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2685,7 +2734,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="104" priority="109" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2696,7 +2745,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="101" priority="106" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2707,7 +2756,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="98" priority="103" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2718,7 +2767,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="95" priority="100" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2729,7 +2778,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="92" priority="97" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2740,7 +2789,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="89" priority="94" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2751,7 +2800,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="86" priority="91" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2762,7 +2811,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="83" priority="88" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2773,7 +2822,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="80" priority="85" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2784,7 +2833,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="77" priority="82" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2795,7 +2844,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="74" priority="79" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2806,7 +2855,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2817,7 +2866,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="68" priority="73" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2828,7 +2877,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2839,7 +2888,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2850,7 +2899,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="cellIs" dxfId="59" priority="64" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2861,7 +2910,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D55">
     <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2872,7 +2921,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2883,7 +2932,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2894,7 +2943,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2905,7 +2954,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D59">
     <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2916,7 +2965,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D60">
     <cfRule type="cellIs" dxfId="41" priority="46" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2927,18 +2976,18 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="44" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="45" operator="equal">
-      <formula>"Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2949,7 +2998,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
+  <conditionalFormatting sqref="D63">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2960,7 +3009,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="D64">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2971,7 +3020,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D65">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2982,7 +3031,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D66">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2993,7 +3042,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
+  <conditionalFormatting sqref="D67">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3004,7 +3053,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
+  <conditionalFormatting sqref="D68">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3015,7 +3064,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
+  <conditionalFormatting sqref="D70">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3026,7 +3075,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
+  <conditionalFormatting sqref="D71">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3037,7 +3086,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
+  <conditionalFormatting sqref="D72">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3048,7 +3097,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
+  <conditionalFormatting sqref="D73">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3059,7 +3108,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
+  <conditionalFormatting sqref="D74">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C34078-42BC-48A9-87E2-AE5E9D818FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E0B4DC-A032-41FA-9623-5B584E6A21A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30510" yWindow="720" windowWidth="12150" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43455" yWindow="780" windowWidth="12150" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="86">
   <si>
     <t>Problem</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>binary_tree_06_symmetric_tree</t>
+  </si>
+  <si>
+    <t>binary_tree_07_path_sum</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="129">
+  <dxfs count="132">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1616,10 +1640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1731,7 +1755,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44579.67350300926</v>
+        <v>44579.69975</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2633,6 +2657,20 @@
         <v>44579.673372106481</v>
       </c>
       <c r="D74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>112</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" s="10">
+        <v>44579.699618055558</v>
+      </c>
+      <c r="D75" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2646,7 +2684,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D69 D75:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D69 D76:D102">
+    <cfRule type="cellIs" dxfId="131" priority="136" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="137" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="138" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="128" priority="133" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2657,7 +2706,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="125" priority="130" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2668,7 +2717,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="122" priority="127" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2679,7 +2728,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="119" priority="124" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2690,7 +2739,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="116" priority="121" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2701,7 +2750,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="113" priority="118" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2712,7 +2761,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="110" priority="115" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2723,7 +2772,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="107" priority="112" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2734,7 +2783,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="104" priority="109" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2745,7 +2794,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="101" priority="106" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2756,7 +2805,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="98" priority="103" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2767,7 +2816,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="95" priority="100" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2778,7 +2827,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="92" priority="97" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2789,7 +2838,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="89" priority="94" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2800,7 +2849,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="86" priority="91" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2811,7 +2860,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="83" priority="88" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2822,7 +2871,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="80" priority="85" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2833,7 +2882,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="77" priority="82" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2844,7 +2893,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="74" priority="79" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2855,7 +2904,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2866,7 +2915,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="68" priority="73" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2877,7 +2926,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2888,7 +2937,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2899,7 +2948,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D55">
     <cfRule type="cellIs" dxfId="59" priority="64" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2910,7 +2959,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2921,7 +2970,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2932,7 +2981,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2943,7 +2992,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D59">
     <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2954,7 +3003,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D60">
     <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2965,18 +3014,18 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="41" priority="46" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="47" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="48" operator="equal">
-      <formula>"Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2987,7 +3036,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
+  <conditionalFormatting sqref="D63">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2998,7 +3047,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="D64">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3009,7 +3058,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D65">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3020,7 +3069,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D66">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3031,7 +3080,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
+  <conditionalFormatting sqref="D67">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3042,7 +3091,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
+  <conditionalFormatting sqref="D68">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3053,7 +3102,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
+  <conditionalFormatting sqref="D70">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3064,7 +3113,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
+  <conditionalFormatting sqref="D71">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3075,7 +3124,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
+  <conditionalFormatting sqref="D72">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3086,7 +3135,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
+  <conditionalFormatting sqref="D73">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3097,7 +3146,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
+  <conditionalFormatting sqref="D74">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3108,7 +3157,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
+  <conditionalFormatting sqref="D75">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E0B4DC-A032-41FA-9623-5B584E6A21A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DFD6C5-3336-470E-8FC0-C8B80A6D7546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43455" yWindow="780" windowWidth="12150" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="87">
   <si>
     <t>Problem</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>binary_tree_07_path_sum</t>
+  </si>
+  <si>
+    <t>226. Invert Binary Tree</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="132">
+  <dxfs count="135">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1640,10 +1664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1755,7 +1779,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44579.69975</v>
+        <v>44579.721841550927</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2671,6 +2695,20 @@
         <v>44579.699618055558</v>
       </c>
       <c r="D75" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>226</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="10">
+        <v>44579.721729282406</v>
+      </c>
+      <c r="D76" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2684,7 +2722,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D69 D76:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D69 D77:D102">
+    <cfRule type="cellIs" dxfId="134" priority="139" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="140" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="141" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="131" priority="136" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2695,7 +2744,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="128" priority="133" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2706,7 +2755,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="125" priority="130" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2717,7 +2766,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="122" priority="127" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2728,7 +2777,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="119" priority="124" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2739,7 +2788,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="116" priority="121" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2750,7 +2799,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="113" priority="118" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2761,7 +2810,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="110" priority="115" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2772,7 +2821,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="107" priority="112" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2783,7 +2832,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="104" priority="109" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2794,7 +2843,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="101" priority="106" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2805,7 +2854,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="98" priority="103" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2816,7 +2865,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="95" priority="100" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2827,7 +2876,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="92" priority="97" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2838,7 +2887,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="89" priority="94" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2849,7 +2898,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="86" priority="91" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2860,7 +2909,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="83" priority="88" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2871,7 +2920,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="80" priority="85" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2882,7 +2931,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="77" priority="82" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2893,7 +2942,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="74" priority="79" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2904,7 +2953,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2915,7 +2964,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="cellIs" dxfId="68" priority="73" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2926,7 +2975,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2937,7 +2986,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D55">
     <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2948,7 +2997,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="cellIs" dxfId="59" priority="64" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2959,7 +3008,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2970,7 +3019,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2981,7 +3030,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D59">
     <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2992,7 +3041,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D60">
     <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3003,18 +3052,18 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="50" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="51" operator="equal">
-      <formula>"Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3025,7 +3074,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
+  <conditionalFormatting sqref="D63">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3036,7 +3085,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="D64">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3047,7 +3096,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D65">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3058,7 +3107,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D66">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3069,7 +3118,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
+  <conditionalFormatting sqref="D67">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3080,7 +3129,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
+  <conditionalFormatting sqref="D68">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3091,7 +3140,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
+  <conditionalFormatting sqref="D70">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3102,7 +3151,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
+  <conditionalFormatting sqref="D71">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3113,7 +3162,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
+  <conditionalFormatting sqref="D72">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3124,7 +3173,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
+  <conditionalFormatting sqref="D73">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3135,7 +3184,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
+  <conditionalFormatting sqref="D74">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3146,7 +3195,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
+  <conditionalFormatting sqref="D75">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3157,7 +3206,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
+  <conditionalFormatting sqref="D76">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DFD6C5-3336-470E-8FC0-C8B80A6D7546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176EB372-8123-42FE-AA10-78EC64E843BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43455" yWindow="780" windowWidth="12150" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="88">
   <si>
     <t>Problem</t>
   </si>
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t>226. Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>700. Search in a Binary Search Tree</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="135">
+  <dxfs count="138">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1664,20 +1688,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="76.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="76.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1694,7 +1718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>441</v>
       </c>
@@ -1708,7 +1732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1489</v>
       </c>
@@ -1722,7 +1746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>122</v>
       </c>
@@ -1739,7 +1763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>35</v>
       </c>
@@ -1753,7 +1777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>278</v>
       </c>
@@ -1764,7 +1788,7 @@
         <v>44516</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>309</v>
       </c>
@@ -1779,10 +1803,10 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44579.721841550927</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>44580.481789467594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>704</v>
       </c>
@@ -1793,7 +1817,7 @@
         <v>44516</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>714</v>
       </c>
@@ -1804,7 +1828,7 @@
         <v>44516</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>189</v>
       </c>
@@ -1815,7 +1839,7 @@
         <v>44517</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>977</v>
       </c>
@@ -1826,7 +1850,7 @@
         <v>44517</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>283</v>
       </c>
@@ -1840,7 +1864,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>167</v>
       </c>
@@ -1854,7 +1878,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>344</v>
       </c>
@@ -1868,7 +1892,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>557</v>
       </c>
@@ -1882,7 +1906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
@@ -1893,7 +1917,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
@@ -1904,7 +1928,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>141</v>
       </c>
@@ -1918,7 +1942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
@@ -1929,7 +1953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>328</v>
       </c>
@@ -1943,7 +1967,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>203</v>
       </c>
@@ -1957,7 +1981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>206</v>
       </c>
@@ -1971,7 +1995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1985,7 +2009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>234</v>
       </c>
@@ -1999,7 +2023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
@@ -2013,7 +2037,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>16</v>
       </c>
@@ -2024,7 +2048,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2038,7 +2062,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>40</v>
       </c>
@@ -2046,7 +2070,7 @@
         <v>44536.512189930552</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>41</v>
       </c>
@@ -2054,7 +2078,7 @@
         <v>44536.543766666669</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>876</v>
       </c>
@@ -2068,7 +2092,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>567</v>
       </c>
@@ -2082,7 +2106,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2096,7 +2120,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>237</v>
       </c>
@@ -2110,7 +2134,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>191</v>
       </c>
@@ -2124,7 +2148,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>973</v>
       </c>
@@ -2138,7 +2162,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
@@ -2152,7 +2176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1326</v>
       </c>
@@ -2166,7 +2190,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>733</v>
       </c>
@@ -2180,7 +2204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>695</v>
       </c>
@@ -2194,7 +2218,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>617</v>
       </c>
@@ -2208,7 +2232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>116</v>
       </c>
@@ -2222,7 +2246,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>542</v>
       </c>
@@ -2236,7 +2260,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>994</v>
       </c>
@@ -2250,7 +2274,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>77</v>
       </c>
@@ -2264,7 +2288,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>46</v>
       </c>
@@ -2278,7 +2302,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>781</v>
       </c>
@@ -2292,7 +2316,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>70</v>
       </c>
@@ -2306,7 +2330,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>198</v>
       </c>
@@ -2320,7 +2344,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>120</v>
       </c>
@@ -2334,7 +2358,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>231</v>
       </c>
@@ -2348,7 +2372,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>190</v>
       </c>
@@ -2362,7 +2386,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>136</v>
       </c>
@@ -2376,7 +2400,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>217</v>
       </c>
@@ -2390,7 +2414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2404,7 +2428,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2418,7 +2442,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>88</v>
       </c>
@@ -2432,7 +2456,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>350</v>
       </c>
@@ -2446,7 +2470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>121</v>
       </c>
@@ -2460,7 +2484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>566</v>
       </c>
@@ -2474,7 +2498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>118</v>
       </c>
@@ -2488,7 +2512,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>36</v>
       </c>
@@ -2502,7 +2526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>74</v>
       </c>
@@ -2516,7 +2540,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>387</v>
       </c>
@@ -2530,7 +2554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>383</v>
       </c>
@@ -2544,7 +2568,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>242</v>
       </c>
@@ -2558,7 +2582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>20</v>
       </c>
@@ -2572,7 +2596,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>232</v>
       </c>
@@ -2586,7 +2610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>83</v>
       </c>
@@ -2600,7 +2624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>144</v>
       </c>
@@ -2614,7 +2638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>94</v>
       </c>
@@ -2628,7 +2652,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>145</v>
       </c>
@@ -2642,7 +2666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>102</v>
       </c>
@@ -2656,7 +2680,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>104</v>
       </c>
@@ -2670,7 +2694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>101</v>
       </c>
@@ -2684,7 +2708,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>112</v>
       </c>
@@ -2698,7 +2722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>226</v>
       </c>
@@ -2709,6 +2733,20 @@
         <v>44579.721729282406</v>
       </c>
       <c r="D76" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>700</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" s="10">
+        <v>44579.746840277781</v>
+      </c>
+      <c r="D77" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2722,7 +2760,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D69 D77:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D69 D78:D102">
+    <cfRule type="cellIs" dxfId="137" priority="142" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="143" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="144" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="134" priority="139" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2733,7 +2782,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="131" priority="136" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2744,7 +2793,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="128" priority="133" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2755,7 +2804,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="125" priority="130" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2766,7 +2815,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="122" priority="127" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2777,7 +2826,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="119" priority="124" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2788,7 +2837,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="116" priority="121" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2799,7 +2848,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="113" priority="118" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2810,7 +2859,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="110" priority="115" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2821,7 +2870,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="107" priority="112" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2832,7 +2881,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="104" priority="109" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2843,7 +2892,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="101" priority="106" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2854,7 +2903,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="98" priority="103" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2865,7 +2914,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="95" priority="100" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2876,7 +2925,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="92" priority="97" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2887,7 +2936,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="89" priority="94" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2898,7 +2947,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="86" priority="91" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2909,7 +2958,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="83" priority="88" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2920,7 +2969,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="80" priority="85" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2931,7 +2980,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="77" priority="82" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2942,7 +2991,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="74" priority="79" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2953,7 +3002,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2964,7 +3013,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="cellIs" dxfId="68" priority="73" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2975,7 +3024,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D55">
     <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2986,7 +3035,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2997,7 +3046,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="cellIs" dxfId="59" priority="64" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3008,7 +3057,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3019,7 +3068,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D59">
     <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3030,7 +3079,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D60">
     <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3041,18 +3090,18 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="53" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="54" operator="equal">
-      <formula>"Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3063,7 +3112,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
+  <conditionalFormatting sqref="D63">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3074,7 +3123,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="D64">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3085,7 +3134,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D65">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3096,7 +3145,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D66">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3107,7 +3156,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
+  <conditionalFormatting sqref="D67">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3118,7 +3167,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
+  <conditionalFormatting sqref="D68">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3129,7 +3178,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
+  <conditionalFormatting sqref="D70">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3140,7 +3189,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
+  <conditionalFormatting sqref="D71">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3151,7 +3200,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
+  <conditionalFormatting sqref="D72">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3162,7 +3211,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
+  <conditionalFormatting sqref="D73">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3173,7 +3222,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
+  <conditionalFormatting sqref="D74">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3184,7 +3233,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
+  <conditionalFormatting sqref="D75">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3195,7 +3244,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
+  <conditionalFormatting sqref="D76">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3206,7 +3255,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D76">
+  <conditionalFormatting sqref="D77">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176EB372-8123-42FE-AA10-78EC64E843BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B04CCC4-BEFF-4D8D-BB78-0566A22AB9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58560" yWindow="-5730" windowWidth="12150" windowHeight="20775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="89">
   <si>
     <t>Problem</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>700. Search in a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>98. Validate Binary Search Tree</t>
   </si>
 </sst>
 </file>
@@ -445,7 +448,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="138">
+  <dxfs count="141">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1688,20 +1712,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="76.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="76.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1718,7 +1742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>441</v>
       </c>
@@ -1732,7 +1756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1489</v>
       </c>
@@ -1746,7 +1770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>122</v>
       </c>
@@ -1763,7 +1787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>35</v>
       </c>
@@ -1777,7 +1801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>278</v>
       </c>
@@ -1788,7 +1812,7 @@
         <v>44516</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>309</v>
       </c>
@@ -1803,10 +1827,10 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44580.481789467594</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44580.718086805558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>704</v>
       </c>
@@ -1817,7 +1841,7 @@
         <v>44516</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>714</v>
       </c>
@@ -1828,7 +1852,7 @@
         <v>44516</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>189</v>
       </c>
@@ -1839,7 +1863,7 @@
         <v>44517</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>977</v>
       </c>
@@ -1850,7 +1874,7 @@
         <v>44517</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>283</v>
       </c>
@@ -1864,7 +1888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>167</v>
       </c>
@@ -1878,7 +1902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>344</v>
       </c>
@@ -1892,7 +1916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>557</v>
       </c>
@@ -1906,7 +1930,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
@@ -1917,7 +1941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
@@ -1928,7 +1952,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>141</v>
       </c>
@@ -1942,7 +1966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
@@ -1953,7 +1977,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>328</v>
       </c>
@@ -1967,7 +1991,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>203</v>
       </c>
@@ -1981,7 +2005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>206</v>
       </c>
@@ -1995,7 +2019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>19</v>
       </c>
@@ -2009,7 +2033,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>234</v>
       </c>
@@ -2023,7 +2047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>21</v>
       </c>
@@ -2037,7 +2061,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>16</v>
       </c>
@@ -2048,7 +2072,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2062,7 +2086,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" s="9" t="s">
         <v>40</v>
       </c>
@@ -2070,7 +2094,7 @@
         <v>44536.512189930552</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>41</v>
       </c>
@@ -2078,7 +2102,7 @@
         <v>44536.543766666669</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>876</v>
       </c>
@@ -2092,7 +2116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>567</v>
       </c>
@@ -2106,7 +2130,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2120,7 +2144,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>237</v>
       </c>
@@ -2134,7 +2158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>191</v>
       </c>
@@ -2148,7 +2172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>973</v>
       </c>
@@ -2162,7 +2186,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>5</v>
       </c>
@@ -2176,7 +2200,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1326</v>
       </c>
@@ -2190,7 +2214,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>733</v>
       </c>
@@ -2204,7 +2228,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>695</v>
       </c>
@@ -2218,7 +2242,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>617</v>
       </c>
@@ -2232,7 +2256,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>116</v>
       </c>
@@ -2246,7 +2270,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>542</v>
       </c>
@@ -2260,7 +2284,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>994</v>
       </c>
@@ -2274,7 +2298,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>77</v>
       </c>
@@ -2288,7 +2312,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>46</v>
       </c>
@@ -2302,7 +2326,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>781</v>
       </c>
@@ -2316,7 +2340,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>70</v>
       </c>
@@ -2330,7 +2354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>198</v>
       </c>
@@ -2344,7 +2368,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>120</v>
       </c>
@@ -2358,7 +2382,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>231</v>
       </c>
@@ -2372,7 +2396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>190</v>
       </c>
@@ -2386,7 +2410,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>136</v>
       </c>
@@ -2400,7 +2424,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>217</v>
       </c>
@@ -2414,7 +2438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2428,7 +2452,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2442,7 +2466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>88</v>
       </c>
@@ -2456,7 +2480,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>350</v>
       </c>
@@ -2470,7 +2494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>121</v>
       </c>
@@ -2484,7 +2508,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>566</v>
       </c>
@@ -2498,7 +2522,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>118</v>
       </c>
@@ -2512,7 +2536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>36</v>
       </c>
@@ -2526,7 +2550,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>74</v>
       </c>
@@ -2540,7 +2564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>387</v>
       </c>
@@ -2554,7 +2578,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>383</v>
       </c>
@@ -2568,7 +2592,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>242</v>
       </c>
@@ -2582,7 +2606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>20</v>
       </c>
@@ -2596,7 +2620,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>232</v>
       </c>
@@ -2610,7 +2634,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>83</v>
       </c>
@@ -2624,7 +2648,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>144</v>
       </c>
@@ -2638,7 +2662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>94</v>
       </c>
@@ -2652,7 +2676,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>145</v>
       </c>
@@ -2666,7 +2690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>102</v>
       </c>
@@ -2680,7 +2704,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>104</v>
       </c>
@@ -2694,7 +2718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>101</v>
       </c>
@@ -2708,7 +2732,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>112</v>
       </c>
@@ -2722,7 +2746,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>226</v>
       </c>
@@ -2736,7 +2760,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>700</v>
       </c>
@@ -2748,6 +2772,20 @@
       </c>
       <c r="D77" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>98</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" s="10">
+        <v>44580.717954745371</v>
+      </c>
+      <c r="D78" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2760,7 +2798,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D69 D78:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D69 D79:D102">
+    <cfRule type="cellIs" dxfId="140" priority="145" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="146" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="147" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="137" priority="142" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2771,7 +2820,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="134" priority="139" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2782,7 +2831,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="131" priority="136" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2793,7 +2842,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="128" priority="133" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2804,7 +2853,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="125" priority="130" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2815,7 +2864,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="122" priority="127" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2826,7 +2875,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="119" priority="124" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2837,7 +2886,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="116" priority="121" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2848,7 +2897,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="113" priority="118" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2859,7 +2908,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="110" priority="115" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2870,7 +2919,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="107" priority="112" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2881,7 +2930,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="104" priority="109" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2892,7 +2941,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="101" priority="106" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2903,7 +2952,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="98" priority="103" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2914,7 +2963,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="95" priority="100" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2925,7 +2974,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="92" priority="97" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2936,7 +2985,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="89" priority="94" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2947,7 +2996,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="86" priority="91" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2958,7 +3007,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="83" priority="88" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2969,7 +3018,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="80" priority="85" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2980,7 +3029,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="77" priority="82" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2991,7 +3040,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="cellIs" dxfId="74" priority="79" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3002,7 +3051,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3013,7 +3062,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D55">
     <cfRule type="cellIs" dxfId="68" priority="73" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3024,7 +3073,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3035,7 +3084,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3046,7 +3095,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="cellIs" dxfId="59" priority="64" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3057,7 +3106,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D59">
     <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3068,7 +3117,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D60">
     <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3079,18 +3128,18 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="56" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="57" operator="equal">
-      <formula>"Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3101,7 +3150,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
+  <conditionalFormatting sqref="D63">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3112,7 +3161,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="D64">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3123,7 +3172,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D65">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3134,7 +3183,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D66">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3145,7 +3194,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
+  <conditionalFormatting sqref="D67">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3156,7 +3205,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
+  <conditionalFormatting sqref="D68">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3167,7 +3216,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
+  <conditionalFormatting sqref="D70">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3178,7 +3227,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
+  <conditionalFormatting sqref="D71">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3189,7 +3238,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
+  <conditionalFormatting sqref="D72">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3200,7 +3249,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
+  <conditionalFormatting sqref="D73">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3211,7 +3260,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
+  <conditionalFormatting sqref="D74">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3222,7 +3271,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
+  <conditionalFormatting sqref="D75">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3233,7 +3282,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
+  <conditionalFormatting sqref="D76">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3244,7 +3293,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D76">
+  <conditionalFormatting sqref="D77">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3255,7 +3304,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D77">
+  <conditionalFormatting sqref="D78">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B04CCC4-BEFF-4D8D-BB78-0566A22AB9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F80D21-AE27-4E93-A4C1-48C4E7EBE733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="58560" yWindow="-5730" windowWidth="12150" windowHeight="20775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="90">
   <si>
     <t>Problem</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>98. Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>653. Two Sum IV - Input is a BST</t>
   </si>
 </sst>
 </file>
@@ -448,7 +451,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="141">
+  <dxfs count="144">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1712,10 +1736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1827,7 +1851,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44580.718086805558</v>
+        <v>44581.430870949072</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2786,6 +2810,20 @@
       </c>
       <c r="D78" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>653</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" s="10">
+        <v>44580.740173611113</v>
+      </c>
+      <c r="D79" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2798,7 +2836,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D69 D79:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D69 D80:D102">
+    <cfRule type="cellIs" dxfId="143" priority="148" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="149" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="150" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="140" priority="145" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2809,7 +2858,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="137" priority="142" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2820,7 +2869,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="134" priority="139" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2831,7 +2880,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="131" priority="136" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2842,7 +2891,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="128" priority="133" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2853,7 +2902,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="125" priority="130" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2864,7 +2913,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="122" priority="127" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2875,7 +2924,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="119" priority="124" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2886,7 +2935,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="116" priority="121" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2897,7 +2946,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="113" priority="118" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2908,7 +2957,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="110" priority="115" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2919,7 +2968,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="107" priority="112" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2930,7 +2979,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="104" priority="109" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2941,7 +2990,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="101" priority="106" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2952,7 +3001,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="98" priority="103" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2963,7 +3012,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="95" priority="100" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2974,7 +3023,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="92" priority="97" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2985,7 +3034,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="89" priority="94" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2996,7 +3045,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="86" priority="91" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3007,7 +3056,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="83" priority="88" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3018,7 +3067,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="80" priority="85" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3029,7 +3078,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="cellIs" dxfId="77" priority="82" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3040,7 +3089,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="cellIs" dxfId="74" priority="79" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3051,7 +3100,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D55">
     <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3062,7 +3111,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="cellIs" dxfId="68" priority="73" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3073,7 +3122,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3084,7 +3133,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3095,7 +3144,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D59">
     <cfRule type="cellIs" dxfId="59" priority="64" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3106,7 +3155,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D60">
     <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3117,18 +3166,18 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="59" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="60" operator="equal">
-      <formula>"Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="54" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3139,7 +3188,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
+  <conditionalFormatting sqref="D63">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3150,7 +3199,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="D64">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3161,7 +3210,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D65">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3172,7 +3221,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D66">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3183,7 +3232,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
+  <conditionalFormatting sqref="D67">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3194,7 +3243,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
+  <conditionalFormatting sqref="D68">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3205,7 +3254,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
+  <conditionalFormatting sqref="D70">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3216,7 +3265,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
+  <conditionalFormatting sqref="D71">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3227,7 +3276,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
+  <conditionalFormatting sqref="D72">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3238,7 +3287,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
+  <conditionalFormatting sqref="D73">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3249,7 +3298,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
+  <conditionalFormatting sqref="D74">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3260,7 +3309,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
+  <conditionalFormatting sqref="D75">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3271,7 +3320,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
+  <conditionalFormatting sqref="D76">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3282,7 +3331,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D76">
+  <conditionalFormatting sqref="D77">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3293,7 +3342,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D77">
+  <conditionalFormatting sqref="D78">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3304,7 +3353,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D78">
+  <conditionalFormatting sqref="D79">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F80D21-AE27-4E93-A4C1-48C4E7EBE733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0885A856-7A47-4000-AF35-A5DF7882D585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="58560" yWindow="-5730" windowWidth="12150" windowHeight="20775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="91">
   <si>
     <t>Problem</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>653. Two Sum IV - Input is a BST</t>
+  </si>
+  <si>
+    <t>235. Lowest Common Ancestor of a Binary Search Tree</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="144">
+  <dxfs count="147">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1736,10 +1760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1851,7 +1875,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44581.430870949072</v>
+        <v>44581.456491203702</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2823,6 +2847,20 @@
         <v>44580.740173611113</v>
       </c>
       <c r="D79" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>235</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" s="10">
+        <v>44581.456319444442</v>
+      </c>
+      <c r="D80" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2836,7 +2874,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D69 D80:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D69 D81:D102">
+    <cfRule type="cellIs" dxfId="146" priority="151" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="152" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="153" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="143" priority="148" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2847,7 +2896,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="140" priority="145" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2858,7 +2907,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="137" priority="142" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2869,7 +2918,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="134" priority="139" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2880,7 +2929,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="131" priority="136" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2891,7 +2940,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="128" priority="133" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2902,7 +2951,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="125" priority="130" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2913,7 +2962,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="122" priority="127" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2924,7 +2973,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="119" priority="124" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2935,7 +2984,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="116" priority="121" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2946,7 +2995,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="113" priority="118" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2957,7 +3006,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="110" priority="115" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2968,7 +3017,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="107" priority="112" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2979,7 +3028,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="104" priority="109" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2990,7 +3039,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="101" priority="106" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3001,7 +3050,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="98" priority="103" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3012,7 +3061,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="95" priority="100" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3023,7 +3072,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="92" priority="97" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3034,7 +3083,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="89" priority="94" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3045,7 +3094,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="86" priority="91" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3056,7 +3105,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="83" priority="88" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3067,7 +3116,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="cellIs" dxfId="80" priority="85" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3078,7 +3127,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="cellIs" dxfId="77" priority="82" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3089,7 +3138,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D55">
     <cfRule type="cellIs" dxfId="74" priority="79" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3100,7 +3149,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3111,7 +3160,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="cellIs" dxfId="68" priority="73" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3122,7 +3171,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3133,7 +3182,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D59">
     <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3144,7 +3193,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D60">
     <cfRule type="cellIs" dxfId="59" priority="64" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3155,18 +3204,18 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="62" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="63" operator="equal">
-      <formula>"Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
     <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3177,7 +3226,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
+  <conditionalFormatting sqref="D63">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3188,7 +3237,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="D64">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3199,7 +3248,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D65">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3210,7 +3259,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D66">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3221,7 +3270,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
+  <conditionalFormatting sqref="D67">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3232,7 +3281,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
+  <conditionalFormatting sqref="D68">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3243,7 +3292,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
+  <conditionalFormatting sqref="D70">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3254,7 +3303,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
+  <conditionalFormatting sqref="D71">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3265,7 +3314,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
+  <conditionalFormatting sqref="D72">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3276,7 +3325,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
+  <conditionalFormatting sqref="D73">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3287,7 +3336,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
+  <conditionalFormatting sqref="D74">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3298,7 +3347,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
+  <conditionalFormatting sqref="D75">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3309,7 +3358,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
+  <conditionalFormatting sqref="D76">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3320,7 +3369,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D76">
+  <conditionalFormatting sqref="D77">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3331,7 +3380,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D77">
+  <conditionalFormatting sqref="D78">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3342,7 +3391,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D78">
+  <conditionalFormatting sqref="D79">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3353,7 +3402,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D79">
+  <conditionalFormatting sqref="D80">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0885A856-7A47-4000-AF35-A5DF7882D585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF77E1E-9BA6-4924-9FBF-21D8ACF7A7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="58560" yWindow="-5730" windowWidth="12150" windowHeight="20775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>Problem</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>235. Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>701. Insert into a Binary Search Tree</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="147">
+  <dxfs count="150">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1760,10 +1784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1875,7 +1899,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44581.456491203702</v>
+        <v>44581.593958912039</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2861,6 +2885,20 @@
         <v>44581.456319444442</v>
       </c>
       <c r="D80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>701</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="10">
+        <v>44581.593542245369</v>
+      </c>
+      <c r="D81" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2874,7 +2912,18 @@
     <sortCondition descending="1" ref="C2:C12"/>
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30 D38 D69 D81:D102">
+  <conditionalFormatting sqref="D2:D30 D38 D69 D82:D102">
+    <cfRule type="cellIs" dxfId="149" priority="154" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="155" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="156" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="146" priority="151" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2885,7 +2934,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="143" priority="148" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2896,7 +2945,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="140" priority="145" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2907,7 +2956,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="137" priority="142" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2918,7 +2967,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="134" priority="139" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2929,7 +2978,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="131" priority="136" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2940,7 +2989,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="128" priority="133" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2951,7 +3000,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="125" priority="130" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2962,7 +3011,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D40">
     <cfRule type="cellIs" dxfId="122" priority="127" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2973,7 +3022,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D41">
     <cfRule type="cellIs" dxfId="119" priority="124" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2984,7 +3033,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="116" priority="121" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2995,7 +3044,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D43">
     <cfRule type="cellIs" dxfId="113" priority="118" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3006,7 +3055,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" dxfId="110" priority="115" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3017,7 +3066,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="107" priority="112" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3028,7 +3077,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="104" priority="109" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3039,7 +3088,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="101" priority="106" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3050,7 +3099,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="98" priority="103" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3061,7 +3110,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="95" priority="100" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3072,7 +3121,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="92" priority="97" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3083,7 +3132,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="cellIs" dxfId="89" priority="94" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3094,7 +3143,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" dxfId="86" priority="91" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3105,7 +3154,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53">
     <cfRule type="cellIs" dxfId="83" priority="88" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3116,7 +3165,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D54">
     <cfRule type="cellIs" dxfId="80" priority="85" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3127,7 +3176,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="D55">
     <cfRule type="cellIs" dxfId="77" priority="82" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3138,7 +3187,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="cellIs" dxfId="74" priority="79" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3149,7 +3198,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3160,7 +3209,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="cellIs" dxfId="68" priority="73" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3171,7 +3220,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D59">
     <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3182,7 +3231,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D60">
     <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3193,18 +3242,18 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="59" priority="64" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="65" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="66" operator="equal">
-      <formula>"Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
     <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3215,7 +3264,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
+  <conditionalFormatting sqref="D63">
     <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3226,7 +3275,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="D64">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3237,7 +3286,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D65">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3248,7 +3297,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D66">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3259,7 +3308,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
+  <conditionalFormatting sqref="D67">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3270,7 +3319,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
+  <conditionalFormatting sqref="D68">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3281,7 +3330,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
+  <conditionalFormatting sqref="D70">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3292,7 +3341,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
+  <conditionalFormatting sqref="D71">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3303,7 +3352,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
+  <conditionalFormatting sqref="D72">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3314,7 +3363,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
+  <conditionalFormatting sqref="D73">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3325,7 +3374,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
+  <conditionalFormatting sqref="D74">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3336,7 +3385,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
+  <conditionalFormatting sqref="D75">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3347,7 +3396,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
+  <conditionalFormatting sqref="D76">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3358,7 +3407,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D76">
+  <conditionalFormatting sqref="D77">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3369,7 +3418,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D77">
+  <conditionalFormatting sqref="D78">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3380,7 +3429,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D78">
+  <conditionalFormatting sqref="D79">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3391,7 +3440,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D79">
+  <conditionalFormatting sqref="D80">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -3402,7 +3451,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D80">
+  <conditionalFormatting sqref="D81">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF77E1E-9BA6-4924-9FBF-21D8ACF7A7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0A3307-400E-4BDC-89E6-FBE3836ABD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58560" yWindow="-5730" windowWidth="12150" windowHeight="20775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,19 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="95">
   <si>
     <t>Problem</t>
   </si>
@@ -359,6 +352,15 @@
   </si>
   <si>
     <t>701. Insert into a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>1480. Running Sum of 1d Array</t>
+  </si>
+  <si>
+    <t>724. Find Pivot Index</t>
+  </si>
+  <si>
+    <t>205. Isomorphic Strings</t>
   </si>
 </sst>
 </file>
@@ -438,7 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -451,7 +453,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1784,10 +1785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1821,7 +1822,7 @@
       <c r="B2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>44505</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -1835,7 +1836,7 @@
       <c r="B3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>44505</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -1849,7 +1850,7 @@
       <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>44511</v>
       </c>
       <c r="D4" t="s">
@@ -1866,7 +1867,7 @@
       <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>44516</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -1880,7 +1881,7 @@
       <c r="B6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>44516</v>
       </c>
     </row>
@@ -1891,7 +1892,7 @@
       <c r="B7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>44516</v>
       </c>
       <c r="D7" t="s">
@@ -1899,7 +1900,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44581.593958912039</v>
+        <v>44973.640816550927</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1909,7 +1910,7 @@
       <c r="B8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>44516</v>
       </c>
     </row>
@@ -1920,7 +1921,7 @@
       <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>44516</v>
       </c>
     </row>
@@ -1931,7 +1932,7 @@
       <c r="B10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>44517</v>
       </c>
     </row>
@@ -1942,7 +1943,7 @@
       <c r="B11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>44517</v>
       </c>
     </row>
@@ -1953,7 +1954,7 @@
       <c r="B12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>44518</v>
       </c>
       <c r="D12" t="s">
@@ -1967,7 +1968,7 @@
       <c r="B13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>44518</v>
       </c>
       <c r="D13" t="s">
@@ -1981,7 +1982,7 @@
       <c r="B14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>44519</v>
       </c>
       <c r="D14" t="s">
@@ -1995,7 +1996,7 @@
       <c r="B15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>44519</v>
       </c>
       <c r="D15" t="s">
@@ -2006,7 +2007,7 @@
       <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>44522</v>
       </c>
       <c r="D16" t="s">
@@ -2017,7 +2018,7 @@
       <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>44524</v>
       </c>
       <c r="D17" t="s">
@@ -2162,7 +2163,7 @@
       <c r="B28" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <v>44536.512189930552</v>
       </c>
     </row>
@@ -2170,7 +2171,7 @@
       <c r="B29" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <v>44536.543766666669</v>
       </c>
     </row>
@@ -2181,7 +2182,7 @@
       <c r="B30" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <v>44536.639974189813</v>
       </c>
       <c r="D30" t="s">
@@ -2195,7 +2196,7 @@
       <c r="B31" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <v>44536.742515162034</v>
       </c>
       <c r="D31" t="s">
@@ -2209,7 +2210,7 @@
       <c r="B32" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="11">
         <v>44537.487768402774</v>
       </c>
       <c r="D32" t="s">
@@ -2223,7 +2224,7 @@
       <c r="B33" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <v>44537.696392245372</v>
       </c>
       <c r="D33" t="s">
@@ -2237,7 +2238,7 @@
       <c r="B34" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="11">
         <v>44537.696392245372</v>
       </c>
       <c r="D34" t="s">
@@ -2251,7 +2252,7 @@
       <c r="B35" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="11">
         <v>44537.758970023147</v>
       </c>
       <c r="D35" t="s">
@@ -2265,7 +2266,7 @@
       <c r="B36" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="11">
         <v>44537.759664351855</v>
       </c>
       <c r="D36" t="s">
@@ -2279,7 +2280,7 @@
       <c r="B37" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="11">
         <v>44544.671527777777</v>
       </c>
       <c r="D37" t="s">
@@ -2293,7 +2294,7 @@
       <c r="B38" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="11">
         <v>44545.451388888891</v>
       </c>
       <c r="D38" t="s">
@@ -2307,7 +2308,7 @@
       <c r="B39" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="11">
         <v>44545.58037152778</v>
       </c>
       <c r="D39" t="s">
@@ -2321,7 +2322,7 @@
       <c r="B40" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="11">
         <v>44545.755876157411</v>
       </c>
       <c r="D40" t="s">
@@ -2335,7 +2336,7 @@
       <c r="B41" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="11">
         <v>44551.533077546293</v>
       </c>
       <c r="D41" t="s">
@@ -2349,7 +2350,7 @@
       <c r="B42" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="11">
         <v>44558.680590046293</v>
       </c>
       <c r="D42" t="s">
@@ -2363,7 +2364,7 @@
       <c r="B43" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="11">
         <v>44558.894684722225</v>
       </c>
       <c r="D43" t="s">
@@ -2377,7 +2378,7 @@
       <c r="B44" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="11">
         <v>44564.717862731479</v>
       </c>
       <c r="D44" t="s">
@@ -2391,7 +2392,7 @@
       <c r="B45" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="11">
         <v>44565.481913310185</v>
       </c>
       <c r="D45" t="s">
@@ -2405,7 +2406,7 @@
       <c r="B46" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="11">
         <v>44566.531255787035</v>
       </c>
       <c r="D46" t="s">
@@ -2419,7 +2420,7 @@
       <c r="B47" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="11">
         <v>44566.600786921299</v>
       </c>
       <c r="D47" t="s">
@@ -2433,7 +2434,7 @@
       <c r="B48" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="11">
         <v>44566.616995486111</v>
       </c>
       <c r="D48" t="s">
@@ -2447,7 +2448,7 @@
       <c r="B49" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="11">
         <v>44567.481120601849</v>
       </c>
       <c r="D49" t="s">
@@ -2461,7 +2462,7 @@
       <c r="B50" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="11">
         <v>44567.719275000003</v>
       </c>
       <c r="D50" t="s">
@@ -2475,7 +2476,7 @@
       <c r="B51" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="11">
         <v>44568.483635879631</v>
       </c>
       <c r="D51" t="s">
@@ -2489,7 +2490,7 @@
       <c r="B52" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="11">
         <v>44568.532858217593</v>
       </c>
       <c r="D52" t="s">
@@ -2503,7 +2504,7 @@
       <c r="B53" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="11">
         <v>44568.723656944443</v>
       </c>
       <c r="D53" t="s">
@@ -2517,7 +2518,7 @@
       <c r="B54" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="11">
         <v>44571.450069907405</v>
       </c>
       <c r="D54" t="s">
@@ -2531,7 +2532,7 @@
       <c r="B55" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="11">
         <v>44571.486182638888</v>
       </c>
       <c r="D55" t="s">
@@ -2545,7 +2546,7 @@
       <c r="B56" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="11">
         <v>44571.695266435185</v>
       </c>
       <c r="D56" t="s">
@@ -2559,7 +2560,7 @@
       <c r="B57" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="11">
         <v>44571.725942824072</v>
       </c>
       <c r="D57" t="s">
@@ -2573,7 +2574,7 @@
       <c r="B58" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="11">
         <v>44572.458006134257</v>
       </c>
       <c r="D58" s="9" t="s">
@@ -2587,7 +2588,7 @@
       <c r="B59" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="11">
         <v>44572.52184548611</v>
       </c>
       <c r="D59" s="9" t="s">
@@ -2601,7 +2602,7 @@
       <c r="B60" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="11">
         <v>44572.601851388892</v>
       </c>
       <c r="D60" s="9" t="s">
@@ -2615,7 +2616,7 @@
       <c r="B61" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="11">
         <v>44573.636434490742</v>
       </c>
       <c r="D61" s="9" t="s">
@@ -2629,7 +2630,7 @@
       <c r="B62" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="12">
+      <c r="C62" s="11">
         <v>44573.735071643518</v>
       </c>
       <c r="D62" s="9" t="s">
@@ -2643,7 +2644,7 @@
       <c r="B63" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C63" s="11">
         <v>44574.496869212962</v>
       </c>
       <c r="D63" s="9" t="s">
@@ -2657,7 +2658,7 @@
       <c r="B64" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="11">
         <v>44574.515946643522</v>
       </c>
       <c r="D64" s="9" t="s">
@@ -2671,7 +2672,7 @@
       <c r="B65" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="11">
         <v>44574.529263773147</v>
       </c>
       <c r="D65" s="9" t="s">
@@ -2685,7 +2686,7 @@
       <c r="B66" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="11">
         <v>44574.617818634259</v>
       </c>
       <c r="D66" s="9" t="s">
@@ -2699,7 +2700,7 @@
       <c r="B67" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C67" s="12">
+      <c r="C67" s="11">
         <v>44574.712636458331</v>
       </c>
       <c r="D67" s="9" t="s">
@@ -2713,7 +2714,7 @@
       <c r="B68" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="11">
         <v>44577.64645162037</v>
       </c>
       <c r="D68" s="9" t="s">
@@ -2902,10 +2903,52 @@
         <v>24</v>
       </c>
     </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>1480</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="10">
+        <v>44972.714251736114</v>
+      </c>
+      <c r="D82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>724</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83" s="10">
+        <v>44973.506265625001</v>
+      </c>
+      <c r="D83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>205</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" s="10">
+        <v>44973.640653125003</v>
+      </c>
+      <c r="D84" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D58" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D58">
-      <sortCondition ref="C1"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D82">
+      <sortCondition ref="C1:C58"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C12">

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\leetcode.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0A3307-400E-4BDC-89E6-FBE3836ABD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045D2A89-1BB7-4515-8BF1-B55817D212D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="96">
   <si>
     <t>Problem</t>
   </si>
@@ -361,6 +361,9 @@
   </si>
   <si>
     <t>205. Isomorphic Strings</t>
+  </si>
+  <si>
+    <t>392. Is Subsequence</t>
   </si>
 </sst>
 </file>
@@ -440,7 +443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -453,6 +456,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1785,10 +1791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1900,7 +1906,7 @@
       </c>
       <c r="I7" s="10">
         <f ca="1">NOW()</f>
-        <v>44973.640816550927</v>
+        <v>44973.742791550925</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2942,6 +2948,20 @@
         <v>44973.640653125003</v>
       </c>
       <c r="D84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>392</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" s="10">
+        <v>44973.742486342591</v>
+      </c>
+      <c r="D85" t="s">
         <v>24</v>
       </c>
     </row>
